--- a/tools/owasp/owasp-asvs-4.0.3.xlsx
+++ b/tools/owasp/owasp-asvs-4.0.3.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/owasp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB99265-344A-0943-BDBB-2D73B5A12282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC690818-CCAF-1641-BA28-7BCEF35E0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24940" yWindow="-50700" windowWidth="28800" windowHeight="50700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
-    <sheet name="asvs" sheetId="1" r:id="rId2"/>
+    <sheet name="asvs" sheetId="4" r:id="rId2"/>
+    <sheet name="implementation_groups" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="766">
   <si>
     <t>assessable</t>
   </si>
@@ -2277,6 +2278,48 @@
   </si>
   <si>
     <t>ref_id</t>
+  </si>
+  <si>
+    <t>implementation_groups</t>
+  </si>
+  <si>
+    <t>L2,L3</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L1,L2,L3</t>
+  </si>
+  <si>
+    <t>V9.2</t>
+  </si>
+  <si>
+    <t>Server Communication Security</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>First steps, automated, or whole of portfolio view</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Most applications</t>
+  </si>
+  <si>
+    <t>High value, high assurance, or high safety</t>
   </si>
 </sst>
 </file>
@@ -2650,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51175FF8-6717-FB40-9E4C-E6F4E9CBE986}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScale="231" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2719,7 @@
         <v>725</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2776,6 +2819,17 @@
       </c>
       <c r="C14" t="s">
         <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>739</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C15" t="s">
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -2785,23 +2839,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B828B-CF6B-1A40-8534-5DC42C4D8E48}">
+  <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView topLeftCell="A246" zoomScale="250" workbookViewId="0">
+      <selection activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,8 +2869,11 @@
       <c r="E1" s="1" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2829,7 +2884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2840,7 +2895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2853,8 +2908,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2867,8 +2925,11 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2881,8 +2942,11 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2895,8 +2959,11 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2909,8 +2976,11 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2923,8 +2993,11 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2937,8 +3010,11 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2949,7 +3025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -2962,8 +3038,11 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2976,8 +3055,11 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2990,8 +3072,11 @@
       <c r="E14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3004,8 +3089,11 @@
       <c r="E15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -3016,7 +3104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3029,8 +3117,11 @@
       <c r="E17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3043,8 +3134,11 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3057,8 +3151,11 @@
       <c r="E19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3069,7 +3166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3082,8 +3179,11 @@
       <c r="E21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3096,8 +3196,11 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3110,8 +3213,11 @@
       <c r="E23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3124,8 +3230,11 @@
       <c r="E24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -3136,7 +3245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3149,8 +3258,11 @@
       <c r="E26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3163,8 +3275,11 @@
       <c r="E27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3177,8 +3292,11 @@
       <c r="E28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3191,8 +3309,11 @@
       <c r="E29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>2</v>
       </c>
@@ -3203,7 +3324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3216,8 +3337,11 @@
       <c r="E31" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3230,8 +3354,11 @@
       <c r="E32" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>2</v>
       </c>
@@ -3242,7 +3369,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3255,8 +3382,11 @@
       <c r="E34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3269,8 +3399,11 @@
       <c r="E35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2</v>
       </c>
@@ -3281,7 +3414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3294,8 +3427,11 @@
       <c r="E37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3308,8 +3444,11 @@
       <c r="E38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>2</v>
       </c>
@@ -3320,7 +3459,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3333,8 +3472,11 @@
       <c r="E40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2</v>
       </c>
@@ -3345,7 +3487,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3358,8 +3500,11 @@
       <c r="E42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3372,8 +3517,11 @@
       <c r="E43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3386,8 +3534,11 @@
       <c r="E44" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>2</v>
       </c>
@@ -3398,7 +3549,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3411,8 +3562,11 @@
       <c r="E46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>2</v>
       </c>
@@ -3423,7 +3577,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3436,8 +3590,11 @@
       <c r="E48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3450,8 +3607,11 @@
       <c r="E49" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3464,8 +3624,11 @@
       <c r="E50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3478,8 +3641,11 @@
       <c r="E51" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3492,8 +3658,11 @@
       <c r="E52" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3506,8 +3675,11 @@
       <c r="E53" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1</v>
       </c>
@@ -3518,7 +3690,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>2</v>
       </c>
@@ -3529,7 +3701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3542,8 +3714,11 @@
       <c r="E56" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3556,8 +3731,11 @@
       <c r="E57" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3570,8 +3748,11 @@
       <c r="E58" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3584,8 +3765,11 @@
       <c r="E59" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3598,8 +3782,11 @@
       <c r="E60" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3612,8 +3799,11 @@
       <c r="E61" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3626,8 +3816,11 @@
       <c r="E62" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3640,8 +3833,11 @@
       <c r="E63" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3654,8 +3850,11 @@
       <c r="E64" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3668,8 +3867,11 @@
       <c r="E65" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3682,8 +3884,11 @@
       <c r="E66" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3696,8 +3901,11 @@
       <c r="E67" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>2</v>
       </c>
@@ -3708,7 +3916,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3721,8 +3929,11 @@
       <c r="E69" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3735,8 +3946,11 @@
       <c r="E70" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3749,8 +3963,11 @@
       <c r="E71" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3763,8 +3980,11 @@
       <c r="E72" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3777,8 +3997,11 @@
       <c r="E73" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3791,8 +4014,11 @@
       <c r="E74" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3805,8 +4031,11 @@
       <c r="E75" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>2</v>
       </c>
@@ -3817,7 +4046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3830,8 +4059,11 @@
       <c r="E77" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3844,8 +4076,11 @@
       <c r="E78" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3858,8 +4093,11 @@
       <c r="E79" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>2</v>
       </c>
@@ -3870,7 +4108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3883,8 +4121,11 @@
       <c r="E81" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3897,8 +4138,11 @@
       <c r="E82" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3911,8 +4155,11 @@
       <c r="E83" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3925,8 +4172,11 @@
       <c r="E84" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3939,8 +4189,11 @@
       <c r="E85" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>2</v>
       </c>
@@ -3951,7 +4204,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3964,8 +4217,11 @@
       <c r="E87" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3978,8 +4234,11 @@
       <c r="E88" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3992,8 +4251,11 @@
       <c r="E89" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -4006,8 +4268,11 @@
       <c r="E90" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4020,8 +4285,11 @@
       <c r="E91" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4034,8 +4302,11 @@
       <c r="E92" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -4048,8 +4319,11 @@
       <c r="E93" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4060,7 +4334,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4073,8 +4347,11 @@
       <c r="E95" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4087,8 +4364,11 @@
       <c r="E96" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4101,8 +4381,11 @@
       <c r="E97" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>2</v>
       </c>
@@ -4113,7 +4396,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4126,8 +4409,11 @@
       <c r="E99" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4140,8 +4426,11 @@
       <c r="E100" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4154,8 +4443,11 @@
       <c r="E101" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4168,8 +4460,11 @@
       <c r="E102" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4182,8 +4477,11 @@
       <c r="E103" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4196,8 +4494,11 @@
       <c r="E104" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>2</v>
       </c>
@@ -4208,7 +4509,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4221,8 +4522,11 @@
       <c r="E106" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4235,8 +4539,11 @@
       <c r="E107" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4249,8 +4556,11 @@
       <c r="E108" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4263,8 +4573,11 @@
       <c r="E109" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4277,8 +4590,11 @@
       <c r="E110" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4291,8 +4607,11 @@
       <c r="E111" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4305,8 +4624,11 @@
       <c r="E112" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>2</v>
       </c>
@@ -4317,7 +4639,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4330,8 +4652,11 @@
       <c r="E114" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4344,8 +4669,11 @@
       <c r="E115" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4358,8 +4686,11 @@
       <c r="E116" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117">
         <v>2</v>
       </c>
@@ -4370,7 +4701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4383,8 +4714,11 @@
       <c r="E118" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4397,8 +4731,11 @@
       <c r="E119" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4411,8 +4748,11 @@
       <c r="E120" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4425,8 +4765,11 @@
       <c r="E121" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B122">
         <v>1</v>
       </c>
@@ -4437,7 +4780,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B123">
         <v>2</v>
       </c>
@@ -4448,7 +4791,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4461,8 +4804,11 @@
       <c r="E124" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B125">
         <v>2</v>
       </c>
@@ -4473,7 +4819,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4486,8 +4832,11 @@
       <c r="E126" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4500,8 +4849,11 @@
       <c r="E127" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4514,8 +4866,11 @@
       <c r="E128" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4528,8 +4883,11 @@
       <c r="E129" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130">
         <v>2</v>
       </c>
@@ -4540,7 +4898,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4553,8 +4911,11 @@
       <c r="E131" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4567,8 +4928,11 @@
       <c r="E132" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4581,8 +4945,11 @@
       <c r="E133" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4595,8 +4962,11 @@
       <c r="E134" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135">
         <v>2</v>
       </c>
@@ -4607,7 +4977,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4620,8 +4990,11 @@
       <c r="E136" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4634,8 +5007,11 @@
       <c r="E137" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4648,8 +5024,11 @@
       <c r="E138" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4662,8 +5041,11 @@
       <c r="E139" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4676,8 +5058,11 @@
       <c r="E140" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B141">
         <v>2</v>
       </c>
@@ -4688,7 +5073,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4701,8 +5086,11 @@
       <c r="E142" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4715,8 +5103,11 @@
       <c r="E143" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4729,8 +5120,11 @@
       <c r="E144" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B145">
         <v>2</v>
       </c>
@@ -4741,7 +5135,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4754,8 +5148,11 @@
       <c r="E146" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4768,8 +5165,11 @@
       <c r="E147" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B148">
         <v>2</v>
       </c>
@@ -4780,7 +5180,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4793,8 +5193,11 @@
       <c r="E149" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B150">
         <v>1</v>
       </c>
@@ -4805,7 +5208,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B151">
         <v>2</v>
       </c>
@@ -4816,7 +5219,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -4829,8 +5232,11 @@
       <c r="E152" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -4843,8 +5249,11 @@
       <c r="E153" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -4857,8 +5266,11 @@
       <c r="E154" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -4871,8 +5283,11 @@
       <c r="E155" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B156">
         <v>2</v>
       </c>
@@ -4883,7 +5298,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -4896,8 +5311,11 @@
       <c r="E157" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -4910,8 +5328,11 @@
       <c r="E158" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B159">
         <v>2</v>
       </c>
@@ -4922,7 +5343,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -4935,8 +5356,11 @@
       <c r="E160" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -4949,8 +5373,11 @@
       <c r="E161" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -4963,8 +5390,11 @@
       <c r="E162" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B163">
         <v>1</v>
       </c>
@@ -4975,7 +5405,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B164">
         <v>2</v>
       </c>
@@ -4986,7 +5416,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -4999,8 +5429,11 @@
       <c r="E165" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5013,8 +5446,11 @@
       <c r="E166" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5027,8 +5463,11 @@
       <c r="E167" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5041,8 +5480,11 @@
       <c r="E168" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5055,8 +5497,11 @@
       <c r="E169" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B170">
         <v>2</v>
       </c>
@@ -5067,7 +5512,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -5080,8 +5525,11 @@
       <c r="E171" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5094,8 +5542,11 @@
       <c r="E172" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5108,8 +5559,11 @@
       <c r="E173" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -5122,8 +5576,11 @@
       <c r="E174" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5136,8 +5593,11 @@
       <c r="E175" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -5150,8 +5610,11 @@
       <c r="E176" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5164,8 +5627,11 @@
       <c r="E177" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5178,8 +5644,11 @@
       <c r="E178" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B179">
         <v>2</v>
       </c>
@@ -5190,7 +5659,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -5203,8 +5672,11 @@
       <c r="E180" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5217,8 +5689,11 @@
       <c r="E181" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -5231,8 +5706,11 @@
       <c r="E182" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5245,8 +5723,11 @@
       <c r="E183" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5259,8 +5740,11 @@
       <c r="E184" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5273,8 +5757,11 @@
       <c r="E185" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5287,8 +5774,11 @@
       <c r="E186" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5301,8 +5791,11 @@
       <c r="E187" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5315,8 +5808,11 @@
       <c r="E188" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5329,8 +5825,11 @@
       <c r="E189" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190">
         <v>2</v>
       </c>
@@ -5341,7 +5840,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5354,8 +5853,11 @@
       <c r="E191" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -5368,8 +5870,11 @@
       <c r="E192" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5382,8 +5887,11 @@
       <c r="E193" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B194">
         <v>2</v>
       </c>
@@ -5394,7 +5902,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -5407,8 +5915,11 @@
       <c r="E195" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -5421,8 +5932,11 @@
       <c r="E196" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5435,8 +5949,11 @@
       <c r="E197" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -5449,8 +5966,11 @@
       <c r="E198" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B199">
         <v>1</v>
       </c>
@@ -5461,7 +5981,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B200">
         <v>2</v>
       </c>
@@ -5472,7 +5992,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -5485,8 +6005,11 @@
       <c r="E201" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -5499,8 +6022,11 @@
       <c r="E202" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -5513,8 +6039,11 @@
       <c r="E203" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B204">
         <v>2</v>
       </c>
@@ -5525,7 +6054,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -5538,8 +6067,11 @@
       <c r="E205" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -5552,8 +6084,11 @@
       <c r="E206" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -5566,8 +6101,11 @@
       <c r="E207" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -5580,8 +6118,11 @@
       <c r="E208" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -5594,8 +6135,11 @@
       <c r="E209" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -5608,8 +6152,11 @@
       <c r="E210" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -5622,8 +6169,11 @@
       <c r="E211" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -5636,8 +6186,11 @@
       <c r="E212" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B213">
         <v>2</v>
       </c>
@@ -5648,7 +6201,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -5661,8 +6214,11 @@
       <c r="E214" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -5675,8 +6231,11 @@
       <c r="E215" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -5689,8 +6248,11 @@
       <c r="E216" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B217">
         <v>2</v>
       </c>
@@ -5701,7 +6263,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -5714,8 +6276,11 @@
       <c r="E218" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -5728,8 +6293,11 @@
       <c r="E219" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B220">
         <v>1</v>
       </c>
@@ -5740,7 +6308,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B221">
         <v>2</v>
       </c>
@@ -5751,7 +6319,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -5764,8 +6332,11 @@
       <c r="E222" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -5778,8 +6349,11 @@
       <c r="E223" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -5792,8 +6366,11 @@
       <c r="E224" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -5806,8 +6383,11 @@
       <c r="E225" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B226">
         <v>2</v>
       </c>
@@ -5818,7 +6398,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -5831,8 +6411,11 @@
       <c r="E227" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -5845,8 +6428,11 @@
       <c r="E228" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B229">
         <v>2</v>
       </c>
@@ -5857,7 +6443,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -5870,8 +6456,11 @@
       <c r="E230" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -5884,8 +6473,11 @@
       <c r="E231" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -5898,8 +6490,11 @@
       <c r="E232" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B233">
         <v>2</v>
       </c>
@@ -5910,7 +6505,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5923,8 +6518,11 @@
       <c r="E234" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -5937,8 +6535,11 @@
       <c r="E235" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -5951,8 +6552,11 @@
       <c r="E236" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B237">
         <v>1</v>
       </c>
@@ -5963,7 +6567,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B238">
         <v>2</v>
       </c>
@@ -5974,7 +6578,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -5987,8 +6591,11 @@
       <c r="E239" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -6001,8 +6608,11 @@
       <c r="E240" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6015,8 +6625,11 @@
       <c r="E241" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -6029,8 +6642,11 @@
       <c r="E242" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -6043,8 +6659,11 @@
       <c r="E243" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -6057,8 +6676,11 @@
       <c r="E244" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B245">
         <v>2</v>
       </c>
@@ -6069,7 +6691,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -6082,8 +6704,11 @@
       <c r="E246" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6096,8 +6721,11 @@
       <c r="E247" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -6110,8 +6738,11 @@
       <c r="E248" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B249">
         <v>2</v>
       </c>
@@ -6122,7 +6753,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -6135,8 +6766,11 @@
       <c r="E250" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -6149,8 +6783,11 @@
       <c r="E251" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -6163,8 +6800,11 @@
       <c r="E252" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -6177,8 +6817,11 @@
       <c r="E253" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -6191,8 +6834,11 @@
       <c r="E254" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -6205,8 +6851,11 @@
       <c r="E255" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6219,8 +6868,11 @@
       <c r="E256" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -6233,8 +6885,11 @@
       <c r="E257" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B258">
         <v>1</v>
       </c>
@@ -6245,7 +6900,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B259">
         <v>2</v>
       </c>
@@ -6256,7 +6911,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -6269,8 +6924,11 @@
       <c r="E260" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -6283,8 +6941,11 @@
       <c r="E261" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -6297,1322 +6958,1625 @@
       <c r="E262" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>7</v>
-      </c>
+      <c r="F262" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263" t="s">
+        <v>756</v>
+      </c>
+      <c r="D263" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>3</v>
+      </c>
+      <c r="C264" t="s">
         <v>526</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E264" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>7</v>
-      </c>
-      <c r="B264">
-        <v>3</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="F264" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>7</v>
+      </c>
+      <c r="B265">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
         <v>528</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E265" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>7</v>
-      </c>
-      <c r="B265">
-        <v>3</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="F265" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>7</v>
+      </c>
+      <c r="B266">
+        <v>3</v>
+      </c>
+      <c r="C266" t="s">
         <v>530</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E266" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>7</v>
-      </c>
-      <c r="B266">
-        <v>3</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="F266" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267">
+        <v>3</v>
+      </c>
+      <c r="C267" t="s">
         <v>532</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E267" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>7</v>
-      </c>
-      <c r="B267">
-        <v>3</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="F267" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>7</v>
+      </c>
+      <c r="B268">
+        <v>3</v>
+      </c>
+      <c r="C268" t="s">
         <v>534</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E268" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B268">
+      <c r="F268" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B269">
         <v>1</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>536</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D269" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B269">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B270">
         <v>2</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C270" t="s">
         <v>538</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D270" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>7</v>
-      </c>
-      <c r="B270">
-        <v>3</v>
-      </c>
-      <c r="C270" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271">
+        <v>3</v>
+      </c>
+      <c r="C271" t="s">
         <v>540</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E271" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B271">
+      <c r="F271" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B272">
         <v>2</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C272" t="s">
         <v>542</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D272" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>7</v>
-      </c>
-      <c r="B272">
-        <v>3</v>
-      </c>
-      <c r="C272" t="s">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>7</v>
+      </c>
+      <c r="B273">
+        <v>3</v>
+      </c>
+      <c r="C273" t="s">
         <v>544</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E273" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>7</v>
-      </c>
-      <c r="B273">
-        <v>3</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="F273" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>7</v>
+      </c>
+      <c r="B274">
+        <v>3</v>
+      </c>
+      <c r="C274" t="s">
         <v>546</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E274" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>7</v>
-      </c>
-      <c r="B274">
-        <v>3</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="F274" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="C275" t="s">
         <v>548</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E275" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>7</v>
-      </c>
-      <c r="B275">
-        <v>3</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="F275" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276">
+        <v>3</v>
+      </c>
+      <c r="C276" t="s">
         <v>550</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E276" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>7</v>
-      </c>
-      <c r="B276">
-        <v>3</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="F276" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
         <v>552</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E277" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>7</v>
-      </c>
-      <c r="B277">
-        <v>3</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="F277" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278" t="s">
         <v>554</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E278" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B278">
+      <c r="F278" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B279">
         <v>2</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" t="s">
         <v>556</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D279" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>7</v>
-      </c>
-      <c r="B279">
-        <v>3</v>
-      </c>
-      <c r="C279" t="s">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>3</v>
+      </c>
+      <c r="C280" t="s">
         <v>558</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E280" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>7</v>
-      </c>
-      <c r="B280">
-        <v>3</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="F280" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281">
+        <v>3</v>
+      </c>
+      <c r="C281" t="s">
         <v>560</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E281" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>7</v>
-      </c>
-      <c r="B281">
-        <v>3</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="F281" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>7</v>
+      </c>
+      <c r="B282">
+        <v>3</v>
+      </c>
+      <c r="C282" t="s">
         <v>562</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E282" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B282">
+      <c r="F282" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B283">
         <v>1</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>564</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D283" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B283">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B284">
         <v>2</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C284" t="s">
         <v>566</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D284" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>7</v>
-      </c>
-      <c r="B284">
-        <v>3</v>
-      </c>
-      <c r="C284" t="s">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285">
+        <v>3</v>
+      </c>
+      <c r="C285" t="s">
         <v>568</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E285" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>7</v>
-      </c>
-      <c r="B285">
-        <v>3</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="F285" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286">
+        <v>3</v>
+      </c>
+      <c r="C286" t="s">
         <v>570</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E286" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>7</v>
-      </c>
-      <c r="B286">
-        <v>3</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="F286" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>7</v>
+      </c>
+      <c r="B287">
+        <v>3</v>
+      </c>
+      <c r="C287" t="s">
         <v>572</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E287" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>7</v>
-      </c>
-      <c r="B287">
-        <v>3</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="F287" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288">
+        <v>3</v>
+      </c>
+      <c r="C288" t="s">
         <v>574</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E288" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>7</v>
-      </c>
-      <c r="B288">
-        <v>3</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="F288" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
         <v>576</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E289" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>7</v>
-      </c>
-      <c r="B289">
-        <v>3</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="F289" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290">
+        <v>3</v>
+      </c>
+      <c r="C290" t="s">
         <v>578</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E290" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>7</v>
-      </c>
-      <c r="B290">
-        <v>3</v>
-      </c>
-      <c r="C290" t="s">
+      <c r="F290" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
         <v>580</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E291" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>7</v>
-      </c>
-      <c r="B291">
-        <v>3</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="F291" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292" t="s">
         <v>582</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E292" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B292">
+      <c r="F292" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B293">
         <v>1</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C293" t="s">
         <v>584</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D293" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B293">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B294">
         <v>2</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C294" t="s">
         <v>586</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D294" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>7</v>
-      </c>
-      <c r="B294">
-        <v>3</v>
-      </c>
-      <c r="C294" t="s">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>7</v>
+      </c>
+      <c r="B295">
+        <v>3</v>
+      </c>
+      <c r="C295" t="s">
         <v>588</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E295" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>7</v>
-      </c>
-      <c r="B295">
-        <v>3</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="F295" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B296">
+        <v>3</v>
+      </c>
+      <c r="C296" t="s">
         <v>590</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E296" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>7</v>
-      </c>
-      <c r="B296">
-        <v>3</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="F296" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>7</v>
+      </c>
+      <c r="B297">
+        <v>3</v>
+      </c>
+      <c r="C297" t="s">
         <v>592</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E297" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B297">
+      <c r="F297" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B298">
         <v>2</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C298" t="s">
         <v>594</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D298" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>7</v>
-      </c>
-      <c r="B298">
-        <v>3</v>
-      </c>
-      <c r="C298" t="s">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299">
+        <v>3</v>
+      </c>
+      <c r="C299" t="s">
         <v>596</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E299" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B299">
+      <c r="F299" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B300">
         <v>2</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>598</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>7</v>
-      </c>
-      <c r="B300">
-        <v>3</v>
-      </c>
-      <c r="C300" t="s">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
         <v>600</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E301" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>7</v>
-      </c>
-      <c r="B301">
-        <v>3</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="F301" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>7</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302" t="s">
         <v>602</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E302" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>7</v>
-      </c>
-      <c r="B302">
-        <v>3</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="F302" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>7</v>
+      </c>
+      <c r="B303">
+        <v>3</v>
+      </c>
+      <c r="C303" t="s">
         <v>604</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E303" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>7</v>
-      </c>
-      <c r="B303">
-        <v>3</v>
-      </c>
-      <c r="C303" t="s">
+      <c r="F303" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304">
+        <v>3</v>
+      </c>
+      <c r="C304" t="s">
         <v>606</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E304" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>7</v>
-      </c>
-      <c r="B304">
-        <v>3</v>
-      </c>
-      <c r="C304" t="s">
+      <c r="F304" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>7</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
         <v>608</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E305" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>7</v>
-      </c>
-      <c r="B305">
-        <v>3</v>
-      </c>
-      <c r="C305" t="s">
+      <c r="F305" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>7</v>
+      </c>
+      <c r="B306">
+        <v>3</v>
+      </c>
+      <c r="C306" t="s">
         <v>610</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E306" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B306">
+      <c r="F306" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B307">
         <v>2</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>612</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D307" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>7</v>
-      </c>
-      <c r="B307">
-        <v>3</v>
-      </c>
-      <c r="C307" t="s">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>3</v>
+      </c>
+      <c r="C308" t="s">
         <v>614</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E308" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>7</v>
-      </c>
-      <c r="B308">
-        <v>3</v>
-      </c>
-      <c r="C308" t="s">
+      <c r="F308" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>7</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309" t="s">
         <v>616</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E309" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B309">
+      <c r="F309" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B310">
         <v>2</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C310" t="s">
         <v>618</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D310" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>7</v>
-      </c>
-      <c r="B310">
-        <v>3</v>
-      </c>
-      <c r="C310" t="s">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>7</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311" t="s">
         <v>620</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E311" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>7</v>
-      </c>
-      <c r="B311">
-        <v>3</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="F311" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>7</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
         <v>622</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E312" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B312">
+      <c r="F312" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B313">
         <v>2</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
         <v>624</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D313" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>7</v>
-      </c>
-      <c r="B313">
-        <v>3</v>
-      </c>
-      <c r="C313" t="s">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>7</v>
+      </c>
+      <c r="B314">
+        <v>3</v>
+      </c>
+      <c r="C314" t="s">
         <v>626</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E314" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B314">
+      <c r="F314" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B315">
         <v>1</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C315" t="s">
         <v>628</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D315" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B315">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B316">
         <v>2</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C316" t="s">
         <v>630</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D316" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>7</v>
-      </c>
-      <c r="B316">
-        <v>3</v>
-      </c>
-      <c r="C316" t="s">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317">
+        <v>3</v>
+      </c>
+      <c r="C317" t="s">
         <v>632</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E317" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>7</v>
-      </c>
-      <c r="B317">
-        <v>3</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="F317" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>7</v>
+      </c>
+      <c r="B318">
+        <v>3</v>
+      </c>
+      <c r="C318" t="s">
         <v>634</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E318" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>7</v>
-      </c>
-      <c r="B318">
-        <v>3</v>
-      </c>
-      <c r="C318" t="s">
+      <c r="F318" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
         <v>636</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E319" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>7</v>
-      </c>
-      <c r="B319">
-        <v>3</v>
-      </c>
-      <c r="C319" t="s">
+      <c r="F319" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320" t="s">
         <v>638</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E320" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B320">
+      <c r="F320" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B321">
         <v>2</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>640</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D321" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>7</v>
-      </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
-      <c r="C321" t="s">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
+      <c r="C322" t="s">
         <v>642</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E322" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>7</v>
-      </c>
-      <c r="B322">
-        <v>3</v>
-      </c>
-      <c r="C322" t="s">
+      <c r="F322" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>7</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="C323" t="s">
         <v>644</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E323" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>7</v>
-      </c>
-      <c r="B323">
-        <v>3</v>
-      </c>
-      <c r="C323" t="s">
+      <c r="F323" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324" t="s">
         <v>646</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E324" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>7</v>
-      </c>
-      <c r="B324">
-        <v>3</v>
-      </c>
-      <c r="C324" t="s">
+      <c r="F324" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>7</v>
+      </c>
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
         <v>648</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E325" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>7</v>
-      </c>
-      <c r="B325">
-        <v>3</v>
-      </c>
-      <c r="C325" t="s">
+      <c r="F325" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
         <v>650</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E326" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B326">
+      <c r="F326" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B327">
         <v>2</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C327" t="s">
         <v>652</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D327" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>7</v>
-      </c>
-      <c r="B327">
-        <v>3</v>
-      </c>
-      <c r="C327" t="s">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328">
+        <v>3</v>
+      </c>
+      <c r="C328" t="s">
         <v>654</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E328" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>7</v>
-      </c>
-      <c r="B328">
-        <v>3</v>
-      </c>
-      <c r="C328" t="s">
+      <c r="F328" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
         <v>656</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E329" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B329">
+      <c r="F329" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B330">
         <v>2</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C330" t="s">
         <v>658</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D330" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>7</v>
-      </c>
-      <c r="B330">
-        <v>3</v>
-      </c>
-      <c r="C330" t="s">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>7</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331" t="s">
         <v>660</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E331" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>7</v>
-      </c>
-      <c r="B331">
-        <v>3</v>
-      </c>
-      <c r="C331" t="s">
+      <c r="F331" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>7</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332" t="s">
         <v>662</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E332" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B332">
+      <c r="F332" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B333">
         <v>1</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C333" t="s">
         <v>664</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D333" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B333">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B334">
         <v>2</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C334" t="s">
         <v>666</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D334" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>7</v>
-      </c>
-      <c r="B334">
-        <v>3</v>
-      </c>
-      <c r="C334" t="s">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335" t="s">
         <v>668</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E335" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>7</v>
-      </c>
-      <c r="B335">
-        <v>3</v>
-      </c>
-      <c r="C335" t="s">
+      <c r="F335" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336" t="s">
         <v>670</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E336" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>7</v>
-      </c>
-      <c r="B336">
-        <v>3</v>
-      </c>
-      <c r="C336" t="s">
+      <c r="F336" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>7</v>
+      </c>
+      <c r="B337">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
         <v>672</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E337" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>7</v>
-      </c>
-      <c r="B337">
-        <v>3</v>
-      </c>
-      <c r="C337" t="s">
+      <c r="F337" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338">
+        <v>3</v>
+      </c>
+      <c r="C338" t="s">
         <v>674</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E338" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>7</v>
-      </c>
-      <c r="B338">
-        <v>3</v>
-      </c>
-      <c r="C338" t="s">
+      <c r="F338" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>7</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
         <v>676</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E339" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B339">
+      <c r="F339" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B340">
         <v>2</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C340" t="s">
         <v>678</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D340" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>7</v>
-      </c>
-      <c r="B340">
-        <v>3</v>
-      </c>
-      <c r="C340" t="s">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341" t="s">
         <v>680</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E341" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>7</v>
-      </c>
-      <c r="B341">
-        <v>3</v>
-      </c>
-      <c r="C341" t="s">
+      <c r="F341" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" t="s">
         <v>682</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E342" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>7</v>
-      </c>
-      <c r="B342">
-        <v>3</v>
-      </c>
-      <c r="C342" t="s">
+      <c r="F342" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>7</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
         <v>684</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E343" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>7</v>
-      </c>
-      <c r="B343">
-        <v>3</v>
-      </c>
-      <c r="C343" t="s">
+      <c r="F343" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344" t="s">
         <v>686</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E344" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>7</v>
-      </c>
-      <c r="B344">
-        <v>3</v>
-      </c>
-      <c r="C344" t="s">
+      <c r="F344" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345" t="s">
         <v>688</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E345" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>7</v>
-      </c>
-      <c r="B345">
-        <v>3</v>
-      </c>
-      <c r="C345" t="s">
+      <c r="F345" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
         <v>690</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E346" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B346">
+      <c r="F346" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B347">
         <v>2</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C347" t="s">
         <v>692</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D347" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>7</v>
-      </c>
-      <c r="B347">
-        <v>3</v>
-      </c>
-      <c r="C347" t="s">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
         <v>694</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E348" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>7</v>
-      </c>
-      <c r="B348">
-        <v>3</v>
-      </c>
-      <c r="C348" t="s">
+      <c r="F348" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
         <v>696</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E349" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B349">
+      <c r="F349" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B350">
         <v>2</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C350" t="s">
         <v>698</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D350" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>7</v>
-      </c>
-      <c r="B350">
-        <v>3</v>
-      </c>
-      <c r="C350" t="s">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351" t="s">
         <v>700</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E351" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>7</v>
-      </c>
-      <c r="B351">
-        <v>3</v>
-      </c>
-      <c r="C351" t="s">
+      <c r="F351" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
         <v>702</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E352" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>7</v>
-      </c>
-      <c r="B352">
-        <v>3</v>
-      </c>
-      <c r="C352" t="s">
+      <c r="F352" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353" t="s">
         <v>704</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E353" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>7</v>
-      </c>
-      <c r="B353">
-        <v>3</v>
-      </c>
-      <c r="C353" t="s">
+      <c r="F353" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
         <v>706</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E354" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>7</v>
-      </c>
-      <c r="B354">
-        <v>3</v>
-      </c>
-      <c r="C354" t="s">
+      <c r="F354" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
         <v>708</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E355" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>7</v>
-      </c>
-      <c r="B355">
-        <v>3</v>
-      </c>
-      <c r="C355" t="s">
+      <c r="F355" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356" t="s">
         <v>710</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E356" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>7</v>
-      </c>
-      <c r="B356">
-        <v>3</v>
-      </c>
-      <c r="C356" t="s">
+      <c r="F356" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
         <v>712</v>
       </c>
-      <c r="E356" t="s">
+      <c r="E357" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B357">
+      <c r="F357" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B358">
         <v>2</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C358" t="s">
         <v>714</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D358" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
-        <v>7</v>
-      </c>
-      <c r="B358">
-        <v>3</v>
-      </c>
-      <c r="C358" t="s">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359" t="s">
         <v>716</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E359" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>7</v>
-      </c>
-      <c r="B359">
-        <v>3</v>
-      </c>
-      <c r="C359" t="s">
+      <c r="F359" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360" t="s">
         <v>718</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E360" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
-        <v>7</v>
-      </c>
-      <c r="B360">
-        <v>3</v>
-      </c>
-      <c r="C360" t="s">
+      <c r="F360" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
         <v>720</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E361" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>7</v>
-      </c>
-      <c r="B361">
-        <v>3</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="F361" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362" t="s">
         <v>722</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E362" t="s">
         <v>723</v>
+      </c>
+      <c r="F362" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAD0F63-89F3-1043-8A3F-8A10FFE9CF39}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tools/owasp/owasp-asvs-4.0.3.xlsx
+++ b/tools/owasp/owasp-asvs-4.0.3.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/owasp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cloud.sodoto.ma\XHUB\DGI\grc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC690818-CCAF-1641-BA28-7BCEF35E0D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9872D2F9-6D13-4726-95B1-A61F0B939D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19185" yWindow="-15" windowWidth="19230" windowHeight="16230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="3" r:id="rId1"/>
     <sheet name="asvs" sheetId="4" r:id="rId2"/>
     <sheet name="implementation_groups" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1135">
   <si>
     <t>assessable</t>
   </si>
@@ -2320,6 +2320,1113 @@
   </si>
   <si>
     <t>High value, high assurance, or high safety</t>
+  </si>
+  <si>
+    <t>library_name[fr]</t>
+  </si>
+  <si>
+    <t>library_description[fr]</t>
+  </si>
+  <si>
+    <t>library_copyright[fr]</t>
+  </si>
+  <si>
+    <t>library_provider[fr]</t>
+  </si>
+  <si>
+    <t>framework_name[fr]</t>
+  </si>
+  <si>
+    <t>framework_description[fr]</t>
+  </si>
+  <si>
+    <t>name[fr]</t>
+  </si>
+  <si>
+    <t>description[fr]</t>
+  </si>
+  <si>
+    <t>Architecture, conception et exigences en matière de modélisation des menaces</t>
+  </si>
+  <si>
+    <t>Exigences relatives au cycle de vie du développement de logiciels sécurisés</t>
+  </si>
+  <si>
+    <t>Vérifier l'utilisation d'un cycle de développement de logiciel sécurisé qui prend en compte la sécurité à tous les stades du développement. ([C1](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier l'utilisation de la modélisation des menaces pour chaque modification de conception ou planification de sprint afin d'identifier les menaces, de planifier les contre-mesures, de faciliter les réponses appropriées aux risques et d'orienter les tests de sécurité.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les récits utilisateurs et les fonctionnalités contiennent des contraintes de sécurité fonctionnelles, telles que "En tant qu'utilisateur, je devrais pouvoir consulter et modifier mon profil. Je ne devrais pas pouvoir voir ou modifier le profil de quelqu'un d'autre"</t>
+  </si>
+  <si>
+    <t>Vérifier la documentation et la justification de toutes les frontières de confiance de la demande, de ses composantes et des flux de données importants.</t>
+  </si>
+  <si>
+    <t>Vérifier la définition et l'analyse de sécurité de l'architecture de haut niveau de l'application et de tous les services à distance connectés. ([C1](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier la mise en œuvre de contrôles de sécurité centralisés, simples (économie de conception), vérifiés, sécurisés et réutilisables pour éviter les contrôles en double, manquants, inefficaces ou peu sûrs. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que tous les développeurs et testeurs disposent d'une liste de contrôle de codage sécurisé, d'exigences de sécurité, de lignes directrices ou de politiques.</t>
+  </si>
+  <si>
+    <t>Exigences architecturales d'authentification</t>
+  </si>
+  <si>
+    <t>Vérifier que les communications entre les composants de l'application, y compris les API, les intergiciels et les couches de données, sont authentifiées et utilisent des comptes utilisateurs individuels. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les communications entre les composants de l'application, y compris les API, le middleware et les couches de données, sont authentifiées. Les composants doivent avoir les privilèges les moins nécessaires possibles. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les méthodes d'authentification et les API de gestion de l'identité mettent en œuvre un contrôle de sécurité de l'authentification cohérent, de sorte qu'il n'y ait pas d'alternatives plus faibles par rapport au risque de l'application.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les voies d'authentification et les API de gestion des identités implémentent une force de contrôle de sécurité d'authentification cohérente, de sorte qu'il n'y ait pas d'alternative plus faible en fonction du risque de l'application.</t>
+  </si>
+  <si>
+    <t>Exigences architecturales en matière de contrôle d'accès</t>
+  </si>
+  <si>
+    <t>Vérifiez que des points d'application de confiance tels que les passerelles de contrôle d'accès, les serveurs et les fonctions sans serveur font respecter les contrôles d'accès. N'imposez jamais de contrôles d'accès au client.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application utilise un mécanisme de contrôle d'accès unique et bien contrôlé pour accéder aux données et ressources protégées. Toutes les requêtes doivent passer par ce mécanisme unique pour éviter les copier-coller ou les chemins alternatifs non sécurisés. ([C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le contrôle d'accès basé sur les attributs ou les caractéristiques est utilisé, c'est-à-dire que le code vérifie l'autorisation de l'utilisateur pour une caractéristique ou une donnée plutôt que son seul rôle. Les autorisations doivent tout de même être attribuées à l'aide de rôles. ([C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Exigences architecturales d'entrée et de sortie</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'architecture cryptographique</t>
+  </si>
+  <si>
+    <t>Erreurs, enregistrement et vérification des exigences architecturales</t>
+  </si>
+  <si>
+    <t>Exigences architecturales en matière de protection des données et de la vie privée</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'architecture des communications</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'architecture des logiciels malveillants</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'architecture de la logique d'entreprise</t>
+  </si>
+  <si>
+    <t>Téléchargement de fichiers sécurisés Exigences architecturales</t>
+  </si>
+  <si>
+    <t>Configuration des exigences architecturales</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>Exigences en matière de sécurité des mots de passe</t>
+  </si>
+  <si>
+    <t>Exigences générales relatives aux authentificateurs</t>
+  </si>
+  <si>
+    <t>Exigences relatives au cycle de vie des authentificateurs</t>
+  </si>
+  <si>
+    <t>Exigences en matière de stockage des identifiants</t>
+  </si>
+  <si>
+    <t>Exigences en matière de récupération des identifiants</t>
+  </si>
+  <si>
+    <t>Exigences relatives aux vérificateurs des secrets</t>
+  </si>
+  <si>
+    <t>Exigences relatives aux vérificateurs hors bande</t>
+  </si>
+  <si>
+    <t>Exigences relatives aux vérificateurs uniques à facteur unique ou à facteurs multiples</t>
+  </si>
+  <si>
+    <t>Exigences relatives aux vérificateurs de logiciels et d'appareils cryptographiques</t>
+  </si>
+  <si>
+    <t>Exigences d'authentification des services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que les exigences en matière d'entrée et de sortie définissent clairement la manière de traiter et d'exploiter les données en fonction du type, du contenu et de la conformité aux lois, règlements et autres politiques applicables. </t>
+  </si>
+  <si>
+    <t>Vérifiez que la sérialisation n'est pas utilisée lorsque vous communiquez avec des clients non fiables. Si cela n'est pas possible, assurez-vous que des contrôles d'intégrité adéquats (et éventuellement un chiffrement si des données sensibles sont envoyées) sont appliqués pour empêcher les attaques de désérialisation, y compris l'injection d'objets.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la validation des entrées est appliquée sur une couche de service de confiance. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'encodage de sortie se fait à proximité ou par l'interprète auquel il est destiné. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier qu'il existe une politique explicite de gestion des clés cryptographiques et que le cycle de vie d'une clé cryptographique suit une norme de gestion des clés telle que NIST SP 800-57.</t>
+  </si>
+  <si>
+    <t>Vérifier que les consommateurs de services cryptographiques protègent les clés et autres secrets en utilisant des coffres-forts de clés ou des alternatives basées sur l'API.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les clés et tous les mots de passe sont remplaçables et font partie d'un processus bien défini de rechiffrement des données sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'architecture traite les secrets côté client, tels que les clés symétriques, les mots de passe ou les jetons d'API, comme non sécurisés et ne les utilise jamais pour protéger ou accéder à des données sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'un format de journalisation communs soit utilisés dans le système.  ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les journaux sont transmis de manière sécurisée à un système de préférence distant pour analyse, détection, alerte et escalade. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les données sensibles sont identifiées et classées en niveaux de protection.</t>
+  </si>
+  <si>
+    <t>Vérifier que tous les niveaux de protection sont associés à un ensemble d'exigences de protection, telles que des exigences de chiffrement, d'intégrité, de conservation, de respect de la vie privée et d'autres exigences de confidentialité, et que celles-ci sont appliquées dans l'architecture.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application chiffre les communications entre les composants, en particulier lorsque ces composants se trouvent dans des conteneurs, systèmes, sites ou fournisseurs de cloud différents. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les composants de l'application vérifient l'authenticité de chaque partie d'un lien de communication afin de prévenir les attaques de type "man-in-the-middle". Par exemple, les composants d'application doivent valider les certificats et les chaînes TLS.</t>
+  </si>
+  <si>
+    <t>Vérifier qu'un système de contrôle du code source est utilisé, avec des procédures pour s'assurer que les enregistrements sont accompagnés de tickets d'émission ou de modification. Le système de contrôle du code source doit disposer d'un contrôle d'accès et d'utilisateurs identifiables pour permettre la traçabilité de toute modification.</t>
+  </si>
+  <si>
+    <t>Vérifier la définition et la documentation de tous les composants de l'application en ce qui concerne la logique métier ou de sécurité qu'ils fournissent.</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les flux de logique métier de grande valeur, y compris l'authentification, la gestion de session et le contrôle d'accès, ne partagent pas un état non synchronisé.</t>
+  </si>
+  <si>
+    <t>Vérifier que tous les flux de logique métier de grande valeur, y compris l'authentification, la gestion de session et le contrôle d'accès, sont sécurisés et résistants aux conditions de concurrence ("race condition") au temps de contrôle et au temps d'utilisation.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les fichiers envoyés par l'utilisateur - s'ils doivent être affichés ou téléchargés à partir de l'application - sont servis par des téléchargements en flux d'octets, ou à partir d'un domaine sans rapport, comme un compartiment de stockage de fichiers en nuage. Mettre en œuvre une politique de sécurité du contenu (CSP) appropriée pour réduire le risque de vecteurs XSS ou d'autres attaques provenant du fichier téléchargé.</t>
+  </si>
+  <si>
+    <t>Vérifiez la séparation des composants de différents niveaux de confiance via des contrôles de sécurité bien définis, des règles de pare-feu, des passerelles API, des proxys inverses, des groupes de sécurité basés sur le cloud ou des mécanismes similaires.</t>
+  </si>
+  <si>
+    <t>Vérifier que les signatures binaires, les connexions de confiance et les nœuds vérifiés sont utilisés pour déployer des binaires sur des dispositifs distants.</t>
+  </si>
+  <si>
+    <t>Vérifier que le pipeline de construction signale les composants obsolètes ou peu sûrs et prend les mesures appropriées.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le pipeline de construction contient une étape de génération pour générer automatiquement et vérifier le déploiement sécurisé de l'application, en particulier si l'infrastructure de l'application est définie par logiciel, comme les scripts de génération d'environnement cloud.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les déploiements d'applications sont correctement mis en bac à sable, conteneurisés et/ou isolés au niveau du réseau pour retarder et dissuader les attaquants d'attaquer d'autres applications, en particulier lorsqu'ils effectuent des actions sensibles ou dangereuses telles que la désérialisation. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application n'utilise pas de technologies côté client non prises en charge, non sécurisées ou obsolètes telles que les plug-ins NSAPI, Flash, Shockwave, ActiveX, Silverlight, NACL ou des applets Java côté client.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les mots de passe définis par l'utilisateur comportent au moins 12 caractères (après avoir combiné plusieurs espaces). ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les mots de passe de 64 caractères ou plus sont autorisés, mais pas au delà de 128 caractères. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le mot de passe n'est pas tronqué. Toutefois, des espaces multiples consécutifs peuvent être remplacés par un seul espace. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que tout caractère Unicode imprimable, y compris les caractères neutres comme les espaces et les Emojis, sont autorisés dans les mots de passe.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs peuvent changer leur mot de passe.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la fonctionnalité de changement de mot de passe nécessite le mot de passe actuel et le nouveau mot de passe de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les mots de passe soumis lors de l'enregistrement du compte, de la connexion et du changement de mot de passe sont comparés à un ensemble de mots de passe violés, soit localement (comme les 1 000 ou 10 000 mots de passe les plus courants qui correspondent à la politique de mot de passe du système), soit en utilisant une API externe. En cas d'utilisation d'une API, une preuve de connaissance nulle ou un autre mécanisme doit être utilisé pour garantir que le mot de passe en texte clair n'est pas envoyé ou utilisé pour vérifier l'état de violation du mot de passe. Si le mot de passe est violé, l'application doit demander à l'utilisateur de définir un nouveau mot de passe non violé. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un compteur de force de mot de passe est fourni pour aider les utilisateurs à définir un mot de passe plus fort.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'il n'existe pas de règles de composition des mots de passe limitant le type de caractères autorisés. Il ne doit pas y avoir restrictions sur l'utilisation de majuscules ou de minuscules, de chiffres ou de caractères spéciaux. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'il n'y a pas d'exigences en matière de rotation périodique du mots de passe ou d'historique des mots de passe.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la fonction "coller", les aides de mot de passe du navigateur et les gestionnaires de mots de passe externes sont autorisés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'utilisateur peut choisir soit de visualiser temporairement la totalité du mot de passe masqué, soit de visualiser temporairement le dernier caractère tapé du mot de passe sur les plateformes qui n'ont pas cette fonctionnalité en natif.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les contrôles anti-automatisation sont efficaces pour atténuer les attaques par violation des tests d'accréditation, par énumération exhaustive (brute-force) et par verrouillage de compte. Ces contrôles comprennent le blocage des mots de passe les plus courants, les verrouillages progressifs, la limitation de débit, les CAPTCHA, les délais toujours plus longs entre les tentatives, les restrictions d'adresse IP ou les restrictions basées sur le risque telles que l'emplacement, la première connexion sur un appareil, les tentatives récentes de déverrouillage du compte, ou autres. Vérifiez qu'il n'y a pas plus de 100 tentatives infructueuses par heure sur un seul compte.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'utilisation d'authentificateurs faibles (tels que les SMS et les e-mails) se limite à la vérification secondaire et à l'approbation des transactions et ne remplace pas les méthodes d'authentification plus sûres. Vérifiez que les méthodes plus fortes sont proposées avant les méthodes faibles, que les utilisateurs sont conscients des risques, ou que des mesures appropriées sont en place pour limiter les risques de compromission du compte.</t>
+  </si>
+  <si>
+    <t>Vérifier que des notifications sécurisées sont envoyées aux utilisateurs après la mise à jour des détails d'authentification, tels que la réinitialisation de l'identifiant, le changement d'adresse électronique ou d'adresse, la connexion à partir d'un lieu inconnu ou risqué. L'utilisation de notifications "push" - plutôt que de SMS ou d'e-mail - est préférable, mais en l'absence de notifications "push", les SMS ou les e-mails sont acceptables tant qu'aucune information sensible n'est divulguée dans la notification.</t>
+  </si>
+  <si>
+    <t>Vérifier la résistance à l'usurpation d'identité contre le phishing, comme l'utilisation de l'authentification multi-facteurs, les dispositifs cryptographiques avec intention (comme les clés connectées avec un "push to authenticate"), ou à des niveaux AAL supérieurs, les certificats côté client.</t>
+  </si>
+  <si>
+    <t>Vérifier que lorsqu'un fournisseur de services d'accréditation (CSP) et l'application vérifiant l'authentification sont séparés, un TLS mutuellement authentifié est en place entre les deux points terminaux.</t>
+  </si>
+  <si>
+    <t>Vérifier la résistance au attaque de rejeu par l'utilisation obligatoire de dispositifs OTP, d'authentificateurs cryptographiques ou de codes de consultation.</t>
+  </si>
+  <si>
+    <t>Vérifier l'intention d'authentification en exigeant l'entrée d'un jeton OTP ou une action initiée par l'utilisateur telle qu'une pression sur un bouton d'une clé matérielle FIDO.</t>
+  </si>
+  <si>
+    <t>Vérifier que les mots de passe ou codes d'activation initiaux générés par le système DOIVENT être générés de manière aléatoire et sécurisée, DOIVENT comporter au moins 6 caractères, PEUVENT contenir des lettres et des chiffres, et expirent après une courte période de temps. Ces secrets initiaux ne doivent pas être autorisés à devenir le mot de passe à long terme.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'inscription et l'utilisation de dispositifs d'authentification fournis par l'abonné sont prises en charge, comme les jetons U2F ou FIDO.</t>
+  </si>
+  <si>
+    <t>Vérifier que les instructions de renouvellement sont envoyées suffisamment tôt pour renouveler les authentificateurs à durée déterminée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les mots de passe sont stockés sous une forme qui résiste aux attaques hors ligne. Les mots de passe DOIVENT être salés et hachés à l'aide d'une fonction approuvée de dérivation de clé ou de hachage de mot de passe à sens unique. Les fonctions de dérivation de clé et de hachage de mot de passe prennent un mot de passe, un sel et un facteur de coût en entrée pour générer un hachage de mot de passe. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le sel a une longueur d'au moins 32 bits et qu'il est choisi arbitrairement pour minimiser les collisions de la valeur du sel parmi les hashs stockés. Pour chaque authentifiant, une valeur de sel unique et le hachage qui en résulte DOIVENT être stockés. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que si le PBKDF2 est utilisé, le nombre d'itérations DOIT être aussi important que les performances du serveur de vérification le permettent, généralement au moins 100 000 itérations. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que si bcrypt est utilisé, le facteur de travail DOIT être aussi important que les performances du serveur de vérification le permettent, généralement au moins 10. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier qu'une itération supplémentaire d'une fonction de dérivation clé est effectuée, en utilisant une valeur de sel qui est secrète et connue uniquement du vérificateur. Générer la valeur de sel en utilisant un générateur de bits aléatoires approuvé [SP 800-90Ar1] et fournir au moins la sécurité minimale spécifiée dans la dernière révision de la norme SP 800-131A. La valeur de sel secrète DOIT être stockée séparément des mots de passe hachés (par exemple, dans un dispositif spécialisé comme un module de sécurité matériel).</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un secret d'activation initiale ou de récupération généré par le système n'est pas envoyé en clair à l'utilisateur.  ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les indices de mot de passe ou l'authentification basée sur la connaissance (dites "questions secrètes") ne sont pas présents.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la récupération du mot de passe ne révèle en aucune façon le mot de passe actuel. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les comptes partagés ou par défaut ne sont pas présents (par exemple "root", "admin" ou "sa").</t>
+  </si>
+  <si>
+    <t>Vérifier que si un facteur d'authentification est modifié ou remplacé, l'utilisateur est informé de cet événement.</t>
+  </si>
+  <si>
+    <t>Vérifier les mots de passe oubliés, et les autres chemins de récupération utilisent un mécanisme de récupération sécurisé, tel que TOTP ou autre soft token, mobile push, ou un autre mécanisme de récupération hors ligne. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier qu'en cas de perte des facteurs d'authentification OTP ou multi-facteurs, la preuve d'identité est effectuée au même niveau que lors de l'inscription.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les secrets de la table d'authentification ne peuvent être utilisés qu'une seule fois.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les secrets de la table d'authentification ont un caractère aléatoire suffisant (112 bits d'entropie) ou, s'ils ont moins de 112 bits d'entropie, qu'ils sont salés avec un sel unique et aléatoire de 32 bits et hachés avec un hachage unidirectionnel approuvé.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les secrets de la table d'authentification résistent aux attaques hors ligne, comme les valeurs prévisibles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les authentificateurs de texte en clair hors bande (NIST "restreint"), tels que les SMS ou le PSTN, ne sont pas proposés par défaut, et que des alternatives plus fortes, telles que les notifications "push", sont proposées en premier lieu.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le vérificateur hors bande expire les demandes d'authentification, les codes ou les jetons hors bande après 10 minutes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les demandes d'authentification, codes ou jetons hors bande du vérificateur ne sont utilisables qu'une seule fois, et uniquement pour la demande d'authentification originale.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'authentificateur et le vérificateur hors bande communiquent sur un canal indépendant sécurisé.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le vérificateur hors bande ne conserve qu'une version hachée du code d'authentification.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code d'authentification initial est généré par un générateur de nombres aléatoires sécurisé, contenant au moins 20 bits d'entropie (en général, un nombre aléatoire de six chiffres est suffisant).</t>
+  </si>
+  <si>
+    <t>Vérifier que les OTP basées sur le temps ont une durée de vie définie avant d'expirer.</t>
+  </si>
+  <si>
+    <t>Vérifier que les clés symétriques utilisées pour vérifier les OTP soumises sont hautement protégées, par exemple en utilisant un module de sécurité matériel ou un stockage de clés basé sur un système d'exploitation sécurisé.</t>
+  </si>
+  <si>
+    <t>Vérifier que des algorithmes cryptographiques approuvés sont utilisés dans la génération, dans la préparation et dans la vérification des OTP.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'OTP basé sur le temps ne peut être utilisé qu'une seule fois pendant la période de validité.</t>
+  </si>
+  <si>
+    <t>Vérifier que si un jeton OTP multi-facteur basé sur le temps est réutilisé pendant la période de validité, il est enregistré et rejeté avec des notifications sécurisées envoyées au détenteur du dispositif.</t>
+  </si>
+  <si>
+    <t>Vérifier que le générateur OTP physique à facteur unique peut être révoqué en cas de vol ou autre perte. S'assurer que la révocation est immédiatement effective pour toutes les sessions connectées, quel que soit le lieu.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les authentificateurs biométriques sont limités à une utilisation en tant que facteurs secondaires en conjonction avec quelque chose que vous avez et quelque chose que vous connaissez.</t>
+  </si>
+  <si>
+    <t>Vérifier que les clés cryptographiques utilisées dans la vérification sont stockées de manière sûre et protégées contre la divulgation, par exemple en utilisant un TPM ou un HSM, ou un service OS qui peut utiliser ce stockage sécurisé.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le nonce de défi est d'une longueur d'au moins 64 bits, et statistiquement unique ou non pendant la durée de vie du dispositif cryptographique.</t>
+  </si>
+  <si>
+    <t>Vérifier que des algorithmes cryptographiques approuvés sont utilisés dans la génération, la préparation et la vérification.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les secrets d'intégration ne reposent pas sur des mots de passe immuables, tels que les clés API ou les comptes privilégiés partagés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que si des mots de passe sont requis pour l'authentification des services, le compte de service utilisé n'est pas un identifiant par défaut. (par exemple, root/root ou admin/admin sont utilisés par défaut dans certains services lors de l'installation).</t>
+  </si>
+  <si>
+    <t>Vérifiez que les mots de passe sont stockés avec une protection suffisante pour empêcher les attaques de récupération hors ligne, y compris l'accès au système local.</t>
+  </si>
+  <si>
+    <t>Vérifier que les mots de passe, les intégrations avec les bases de données et les systèmes tiers, les seeds et les secrets internes, ainsi que les clés API sont gérés de manière sécurisée et ne sont pas inclus dans le code source ou stockés dans des dépôts de code source. Ce type de stockage DEVRAIT résister aux attaques hors ligne. L'utilisation d'un stockage de clés logiciel sécurisé (L1), d'un module de plate-forme de confiance (TPM) ou d'un module de sécurité matériel (L3) est recommandée pour le stockage des mots de passe.</t>
+  </si>
+  <si>
+    <t>Exigences de vérification de la gestion des sessions</t>
+  </si>
+  <si>
+    <t>Exigences fondamentales en matière de gestion des sessions</t>
+  </si>
+  <si>
+    <t>Exigences contraignantes de la session</t>
+  </si>
+  <si>
+    <t>Exigences en matière de déconnexion et de temporisation des sessions</t>
+  </si>
+  <si>
+    <t>Gestion de session basée sur les cookies</t>
+  </si>
+  <si>
+    <t>Gestion de session à jetons</t>
+  </si>
+  <si>
+    <t>Re-authentification d'une fédération ou d'une assertion</t>
+  </si>
+  <si>
+    <t>Défenses contre l'exploitation de la gestion des sessions</t>
+  </si>
+  <si>
+    <t>Exigences de vérification du contrôle d'accès</t>
+  </si>
+  <si>
+    <t>Conception générale du contrôle d'accès</t>
+  </si>
+  <si>
+    <t>Contrôle d'accès au niveau des opérations</t>
+  </si>
+  <si>
+    <t>Autres considérations relatives au contrôle d'accès</t>
+  </si>
+  <si>
+    <t>Exigences de validation, d'assainissement et de vérification de l'encodage</t>
+  </si>
+  <si>
+    <t>Exigences de validation des entrées</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'assainissement et de « bac à sable »</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'encodage de sortie et de prévention des injections</t>
+  </si>
+  <si>
+    <t>Exigences en matière de mémoire, de chaînes de caractères et de code non géré</t>
+  </si>
+  <si>
+    <t>Exigences de prévention de la désérialisation</t>
+  </si>
+  <si>
+    <t>Exigences de vérification de la cryptographie stockée</t>
+  </si>
+  <si>
+    <t>Classification des données</t>
+  </si>
+  <si>
+    <t>Algorithmes</t>
+  </si>
+  <si>
+    <t>Valeurs aléatoires</t>
+  </si>
+  <si>
+    <t>Gestion du secret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez que l'application ne révèle jamais les jetons de session dans les paramètres d'URL ou les messages d'erreur. </t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application génère un nouveau jeton de session sur l'authentification de l'utilisateur. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session possèdent au moins 64 bits d'entropie. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application ne stocke que des jetons de session dans le navigateur en utilisant des méthodes sûres telles que les cookies correctement sécurisés (voir section 3.4) ou le stockage de session HTML 5.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session sont générés à l'aide d'algorithmes cryptographiques approuvés. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que la déconnexion et l'expiration invalident le jeton de session, de sorte que le bouton de retour ou une partie de confiance en aval ne reprenne pas une session authentifiée, y compris entre les parties de confiance. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Si les authentificateurs permettent aux utilisateurs de rester connectés, vérifiez que la ré-authentification a lieu périodiquement, que ce soit en cas d'utilisation active ou après une période d'inactivité. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application offre la possibilité de mettre fin à toutes les autres sessions actives après un changement de mot de passe réussi (y compris le changement par réinitialisation/récupération du mot de passe), et que cette option est effective dans toute l'application, la connexion fédérée (si elle existe) et toute partie qui se fie à elle.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les utilisateurs sont en mesure de consulter et (après avoir saisi à nouveau leurs identifiants de connexion) de se déconnecter d'une ou de toutes les sessions et de tous les dispositifs actuellement actifs.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session basés sur des cookies ont l'attribut 'Secure'. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session basés sur des cookies ont l'attribut 'HttpOnly'. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session basés sur des cookies utilisent l'attribut 'SameSite' pour limiter l'exposition aux attaques de contrefaçon par requête intersite. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session basés sur les cookies utilisent le préfixe "__Host-" (voir références) pour assurer la confidentialité des cookies de session.</t>
+  </si>
+  <si>
+    <t>Vérifiez que si la demande est publiée sous un nom de domaine avec d'autres applications qui définissent ou utilisent des cookies de session susceptibles de les remplacer ou de les divulguer, définissez l'attribut de chemin dans les jetons de session basés sur les cookies en utilisant le chemin le plus précis possible. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez que l'application permet aux utilisateurs de révoquer les jetons OAuth qui forment des relations d'approbation avec les applications liées. </t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application utilise des jetons de session plutôt que des secrets et des clés d'API statiques, sauf dans le cas d'anciennes implémentations (legacy).</t>
+  </si>
+  <si>
+    <t>Vérifiez que les jetons de session sans état utilisent les signatures numériques, le chiffrement et d'autres contre-mesures pour se protéger contre les attaques par altération, mise sous enveloppe, rediffusion, chiffrement nul et substitution de clé.</t>
+  </si>
+  <si>
+    <t>Vérifier que les parties qui se fient à la procédure précisent le délai maximal d'authentification aux fournisseurs de services d'authentification (CSP) et que ces derniers ré-authentifient l'abonné s'ils n'ont pas utilisé de session pendant cette période.</t>
+  </si>
+  <si>
+    <t>Vérifier que les fournisseurs de services d'accréditation (CSP) informent les parties ayant fait confiance au dernier événement d'authentification, afin de permettre aux RP de déterminer s'ils doivent ré-authentifier l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application garantit une session de connexion complète et valide ou exige une nouvelle authentification ou une vérification secondaire avant d'autoriser toute transaction sensible ou modification de compte.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application applique les règles de contrôle d'accès sur une couche de service de confiance, en particulier si le contrôle d'accès côté client est présent et pourrait être contourné.</t>
+  </si>
+  <si>
+    <t>Vérifier que tous les attributs des utilisateurs et des données et les informations sur les politiques utilisées par les contrôles d'accès ne peuvent être manipulés par les utilisateurs finaux, sauf autorisation spécifique.</t>
+  </si>
+  <si>
+    <t>Vérifier que le principe du moindre privilège existe - les utilisateurs ne doivent pouvoir accéder qu'aux fonctions, fichiers de données, URL, contrôleurs, services et autres ressources pour lesquels ils possèdent une autorisation spécifique. Cela implique une protection contre l'usurpation et l'élévation des privilèges. ([C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les contrôles d'accès échouent de manière sûre, y compris lorsqu'une exception se produit. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les données sensibles et les API sont protégées contre les attaques par référence directe à un objet (IDOR) non sécurisées visant la création, la lecture, la mise à jour et la suppression d'enregistrements, telles que la création ou la mise à jour de l'enregistrement de quelqu'un d'autre, la consultation de tous les enregistrements ou la suppression de tous les enregistrements.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application ou le cadriciel applique un mécanisme anti-CSRF fort pour protéger les fonctionnalités authentifiées, et qu'une anti-automation ou un anti-CSRF efficace protège les fonctionnalités non authentifiées.</t>
+  </si>
+  <si>
+    <t>Vérifier que les interfaces administratives utilisent une authentification multifactorielle appropriée pour empêcher toute utilisation non autorisée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la navigation dans les répertoires est désactivée, sauf si vous le souhaitez délibérément. En outre, les applications ne doivent pas permettre la découverte ou la divulgation de métadonnées de fichiers ou de répertoires, tels que les dossiers Thumbs.db, .DS_Store, .git ou .svn.</t>
+  </si>
+  <si>
+    <t>Vérifier que la demande dispose d'une autorisation supplémentaire (telle qu'une authentification renforcée ou adaptative) pour les systèmes à faible valeur, et/ou d'une séparation des tâches pour les demandes à valeur élevée afin de faire appliquer les contrôles anti-fraude en fonction du risque de fraude de la demande et de la fraude passée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application dispose de défenses contre les attaques de pollution des paramètres HTTP, en particulier si le cadre de l'application ne fait aucune distinction quant à la source des paramètres de la requête (GET, POST, cookies, en-têtes ou variables d'environnement).</t>
+  </si>
+  <si>
+    <t>Vérifiez que les cadriciels protègent contre les attaques par assignation massive de paramètres, ou que l'application dispose de contre-mesures pour protéger contre l'assignation dangereuse de paramètres, comme le marquage des champs privés ou similaires. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les entrées (champs de formulaire HTML, demandes REST, paramètres URL, en-têtes HTTP, cookies, fichiers batch, flux RSS, etc) sont validées par une validation positive (liste d'autorisation). ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les données structurées sont fortement typées et validées par rapport à un schéma défini comprenant les caractères, la longueur et le modèle autorisés (par exemple, numéros de carte de crédit ou de téléphone, ou valider que deux champs connexes sont raisonnables, comme vérifier la correspondance entre la banlieue et le code postal). ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les redirections et les transferts d'URL n'autorisent que les destinations prévu, ou affichez un avertissement lors d'une redirection vers un contenu potentiellement non fiable.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les entrées HTML non fiables provenant d'éditeurs WYSIWYG ou similaires sont correctement assainit avec une bibliothèque ou une fonction de framework de nettoyage HTML. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les données non structurées sont assainit afin d'appliquer les mesures de sécurité telles que les caractères et la longueur autorisés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application assainit les entrées de l'utilisateur avant de passer aux systèmes de messagerie pour protéger contre l'injection SMTP ou IMAP.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application évite l'utilisation de eval() ou d'autres fonctions d'exécution de code dynamique. Lorsqu'il n'y a pas d'alternative, toute entrée utilisateur incluse doit être assainit ou mise en sandbox avant d'être exécutée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre les attaques par injection de modèles en veillant à ce que toute entrée de l'utilisateur incluse soit aseptisée ou mise en bac à sable.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application protège contre les attaques SSRF, en validant ou en assainissant les données non fiables ou les métadonnées de fichiers HTTP, comme les noms de fichiers et les champs de saisie d'URL, utiliser la liste d'autorisation des protocoles, domaines, chemins et ports.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application assainit, désactive ou met en place une isolation (sandbox) pour le contenu scriptable fourni par l'utilisateur (Scalable Vector Graphics - SVG), en particulier en ce qui concerne les XSS résultant de scripts natif au code présent et foreignObject.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application assainit, désactive ou met en sandbox le contenu des scripts ou des modèles d'expression fournis par l'utilisateur, tels que les feuilles de style Markdown, CSS ou XSL, le BBCode ou autres.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'encodage de sortie est pertinent pour l'interprète et le contexte requis. Par exemple, utilisez des encodeurs spécifiques pour les valeurs HTML, les attributs HTML, JavaScript, les paramètres URL, les en-têtes HTTP, SMTP et autres selon le contexte, en particulier à partir d'entrées non fiables (par exemple les noms avec Unicode ou apostrophes, comme ねこ ou O'Hara). ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'encodage de sortie préserve le jeu de caractères et la langue choisis par l'utilisateur, de sorte que tout point de caractère Unicode soit valide et traité en toute sécurité. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'encodage des sorties en fonction du contexte, de préférence automatisé - ou au pire, manuel - protège contre le XSS réfléchi, stocké et basé sur le DOM. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que la sélection de données ou les requêtes de base de données (par exemple SQL, HQL, ORM, NoSQL) utilisent des requêtes paramétrées, des ORM, des cadres d'entités, ou sont autrement protégées contre les attaques par injection de base de données. ([C3](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que, lorsque des mécanismes paramétrés ou plus sûrs ne sont pas présents, un encodage de sortie spécifique au contexte est utilisé pour se protéger contre les attaques par injection, comme l'utilisation de l'échappement SQL pour se protéger contre l'injection SQL. ([C3, C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application se protège contre les attaques par injection de JSON, les attaques par évaluation de JSON et les évaluations d'expressions JavaScript. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre les vulnérabilités de LDAP Injection, ou que des contrôles de sécurité spécifiques pour empêcher des injections LDAP ont été mis en place. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre l'injection de commandes du système d'exploitation et que les appels du système d'exploitation utilisent des requêtes paramétrées du système d'exploitation ou utilisent l'encodage contextuel de la sortie de la ligne de commande. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre les attaques par inclusion de fichier local (LFI) ou par inclusion de fichier distant (RFI).</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre les attaques par injection XPath ou par injection XML. ([C4](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application utilise une chaîne de caractères à mémoire sécurisée, une copie mémoire sécurisée et l'arithmétique des pointeurs pour détecter ou empêcher les débordements de pile, de mémoire tampon ou de tas.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les chaînes de format ne prennent pas d'entrée potentiellement hostile, et sont constantes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les techniques de validation des signes, des plages et des entrées sont utilisées pour éviter les débordements d'entiers.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les objets sérialisés utilisent des contrôles d'intégrité ou sont chiffrés pour empêcher la création d'objets hostiles ou la falsification de données. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez que l'application restreint correctement les analyseurs XML pour n'utiliser que la configuration la plus restrictive possible et pour s'assurer que les fonctions dangereuses telles que la résolution d'entités externes sont désactivées pour empêcher les XXE. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez que la désérialisation des données non fiables est évitée ou protégée à la fois dans le code personnalisé et les bibliothèques tierces (comme les analyseurs JSON, XML et YAML). </t>
+  </si>
+  <si>
+    <t>Vérifiez que lors de l'analyse de JSON dans les navigateurs ou les backends basés sur JavaScript, JSON.parse est utilisé pour analyser le document JSON. N'utilisez pas eval() pour analyser JSON.</t>
+  </si>
+  <si>
+    <t>Vérifier que les données privées réglementées sont stockées sous forme chiffrée pendant le repos, comme les informations d'identification personnelle (IIP), les informations personnelles sensibles ou les données considérées comme susceptibles d'être soumises à la GDPR de l'UE.</t>
+  </si>
+  <si>
+    <t>Vérifier que les données de santé réglementées sont stockées de manière chiffrée pendant le repos, comme les dossiers médicaux, les détails des dispositifs médicaux ou les dossiers de recherche désanonymisés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les données financières réglementées sont stockées de manière cryptée lorsqu'elles sont au repos, telles que les comptes financiers, les défauts ou les antécédents de crédit, les dossiers fiscaux, l'historique des salaires, les bénéficiaires ou les dossiers de marché ou de recherche désanonymisés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les modules cryptographiques échouent en toute sécurité, et que les erreurs sont traitées de manière à ne pas permettre les attaques de type "Padding Oracle".</t>
+  </si>
+  <si>
+    <t>Vérifiez que des algorithmes, des bibliothèques cryptographiques et des modes éprouvés par l'industrie ou approuvés par le gouvernement sont utilisés, au lieu de la cryptographie codée sur mesure. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le vecteur d'initialisation du chiffrement, la configuration du chiffrement et les modes de blocage sont configurés de manière sécurisée en utilisant les derniers conseils.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les algorithmes de chiffrement ou de hachage, les longueurs de clé, le nombre de rondes, les chiffrements ou les modes, peuvent être reconfigurés, mis à niveau ou échangés à tout moment, pour se protéger contre les failles cryptographiques. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les modes de blocs non sécurisés connus (c'est-à-dire ECB, etc.), les modes de remplissage (c'est-à-dire PKCS#1 v1.5, etc.), les chiffrements avec des blocs de petites tailles (c'est-à-dire Triple-DES, Blowfish, etc.) et les algorithmes de hachage faibles (c'est-à-dire MD5, SHA1, etc.) ne sont pas utilisés, sauf si cela est nécessaire pour la rétrocompatibilité.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les nonces, vecteurs d'initialisation et autres numéros à usage unique ne doivent pas être utilisés plus d'une fois avec une clé de chiffrement donnée. La méthode de génération doit être appropriée à l'algorithme utilisé.</t>
+  </si>
+  <si>
+    <t>Vérifier que les données chiffrées sont authentifiées par des signatures, des modes de chiffrement authentifiés ou le [HMAC](https://en.wikipedia.org/wiki/HMAC) pour s'assurer que le texte chiffré n'est pas altéré par une partie non autorisée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les opérations cryptographiques sont à temps constant, sans opérations de "court-circuit" dans les comparaisons, les calculs ou les retours, afin d'éviter les fuites d'informations.</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les nombres aléatoires, noms de fichiers aléatoires, GUIDs aléatoires et chaînes aléatoires sont générés en utilisant le générateur de nombres aléatoires sécurisé cryptographiquement approuvé par le module cryptographique lorsque ces valeurs aléatoires sont destinées à ne pas être devinées par un attaquant.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les GUID aléatoires sont créés en utilisant l'algorithme GUID v4, et un générateur de nombres pseudo-aléatoires sécurisé cryptographiquement (CSPRNG). Les GUID créés à l'aide d'autres générateurs de nombres pseudo-aléatoires peuvent être prévisibles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les nombres aléatoires sont créés avec une entropie correcte même lorsque l'application est soumise à une forte charge, ou que l'application se dégrade gracieusement dans de telles circonstances.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'une solution de gestion des secrets, telle qu'un coffre fort de clés, est utilisé pour créer, stocker, contrôler l'accès aux secrets et les détruire en toute sécurité. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le matériel clé ne soit pas exposé à l'application mais utilise plutôt un module de sécurité isolé comme un coffre-fort pour les opérations cryptographiques. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Traitement des erreurs et exigences de vérification de l'enregistrement</t>
+  </si>
+  <si>
+    <t>Exigences relatives au contenu des journaux</t>
+  </si>
+  <si>
+    <t>Exigences de traitement des journaux</t>
+  </si>
+  <si>
+    <t>Exigences en matière de protection des journaux</t>
+  </si>
+  <si>
+    <t>Traitement des erreurs</t>
+  </si>
+  <si>
+    <t>Exigences de vérification de la protection des données</t>
+  </si>
+  <si>
+    <t>Protection générale des données</t>
+  </si>
+  <si>
+    <t>Protection des données côté client</t>
+  </si>
+  <si>
+    <t>Données privées sensibles</t>
+  </si>
+  <si>
+    <t>Exigences de vérification des communications</t>
+  </si>
+  <si>
+    <t>Exigences de sécurité des communications des clients</t>
+  </si>
+  <si>
+    <t>Exigences de sécurité des communications du serveur</t>
+  </si>
+  <si>
+    <t>Exigences de vérification des codes malveillants</t>
+  </si>
+  <si>
+    <t>Contrôles de l'intégrité du code</t>
+  </si>
+  <si>
+    <t>Recherche de code malveillant</t>
+  </si>
+  <si>
+    <t>Contrôles d'intégrité des applications déployées</t>
+  </si>
+  <si>
+    <t>Exigences de vérification de la logique d'entreprise</t>
+  </si>
+  <si>
+    <t>Exigences de sécurité de la logique d'entreprise</t>
+  </si>
+  <si>
+    <t>Exigences de vérification des dossiers et des ressources</t>
+  </si>
+  <si>
+    <t>Exigences pour le téléchargement de fichiers</t>
+  </si>
+  <si>
+    <t>Exigences en matière d'intégrité des fichiers</t>
+  </si>
+  <si>
+    <t>Exigences relatives à l'exécution des fichiers</t>
+  </si>
+  <si>
+    <t>Exigences en matière de stockage des fichiers</t>
+  </si>
+  <si>
+    <t>Exigences de téléchargement des fichiers</t>
+  </si>
+  <si>
+    <t>Exigences de protection des SSRF</t>
+  </si>
+  <si>
+    <t>Exigences de vérification des API et des services Web</t>
+  </si>
+  <si>
+    <t>Exigences génériques de vérification de la sécurité des services web</t>
+  </si>
+  <si>
+    <t>Exigences de vérification pour les services web de type RESTful</t>
+  </si>
+  <si>
+    <t>Exigences de vérification du service web SOAP</t>
+  </si>
+  <si>
+    <t>GraphQL et autres exigences de sécurité de la couche de données des services Web</t>
+  </si>
+  <si>
+    <t>Exigences de vérification de la configuration</t>
+  </si>
+  <si>
+    <t>Exigences sur les constructions</t>
+  </si>
+  <si>
+    <t>Exigences sur les dépendances</t>
+  </si>
+  <si>
+    <t>Exigences de divulgation involontaire de renseignements sur la sécurité</t>
+  </si>
+  <si>
+    <t>Exigences relatives aux en-têtes de sécurité HTTP</t>
+  </si>
+  <si>
+    <t>Exigences sur la validation des en-têtes de requête HTTP</t>
+  </si>
+  <si>
+    <t>Vérifiez que le journal n'enregistre pas les références ou les détails de paiement. Les jetons de session ne doivent être stockés dans les journaux que sous une forme hachée et irréversible. ([C9, C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application n'enregistre pas d'autres données sensibles telles que définies par les lois locales sur la protection de la vie privée ou la politique de sécurité pertinente. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application enregistre les événements pertinents pour la sécurité, y compris les événements d'authentification réussis et échoués, les échecs de contrôle d'accès, les échecs de désérialisation et les échecs de validation des entrées. ([C5, C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que chaque événement consigné dans le journal contient les informations nécessaires pour permettre une enquête détaillée sur la chronologie de l'événement. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifiez que toutes les décisions d'authentification sont consignées, sans stocker d'identifiants de session ou de mots de passe sensibles. Cela devrait inclure les demandes avec les métadonnées pertinentes nécessaires aux enquêtes de sécurité. </t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les décisions de contrôle d'accès peuvent être enregistrées et que toutes les décisions qui ont échoué sont enregistrées. Cela devrait inclure les demandes avec les métadonnées pertinentes nécessaires aux enquêtes de sécurité.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application encode correctement les données fournies par l'utilisateur pour éviter l'injection de logs. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les journaux de sécurité sont protégés contre tout accès et toute modification non autorisés. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que les sources de temps sont synchronisées avec l'heure et le fuseau horaire corrects. Envisager sérieusement de n'enregistrer les données qu'en UTC si les systèmes sont globaux pour faciliter l'analyse criminalistique post-incident. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un message générique s'affiche lorsqu'une erreur inattendue ou sensible à la sécurité se produit, éventuellement avec un identifiant unique que le personnel de soutien peut utiliser pour enquêter.  ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que le traitement des exceptions est utilisé dans toute le code source pour tenir compte des conditions d'erreur prévues et imprévues. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un gestionnaire d'erreurs de "dernier recours" est défini, qui prendra en compte toutes les exceptions non traitées. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège les données sensibles contre la mise en cache dans des composants du serveur tels que les équilibreurs de charge et les caches d'applications.</t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les copies en cache ou temporaires de données sensibles stockées sur le serveur sont protégées contre tout accès non autorisé ou purgées/invalidées après que l'utilisateur autorisé a accédé aux données sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application minimise le nombre de paramètres dans une requête, tels que les champs cachés, les variables Ajax, les cookies et les valeurs d'en-tête.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application peut détecter et alerter sur un nombre anormal de demandes, par exemple par IP, par utilisateur, par total par heure ou par jour, ou tout ce qui a un sens pour l'application.</t>
+  </si>
+  <si>
+    <t>Vérifiez que des sauvegardes régulières des données importantes sont effectuées et que des tests de restauration des données sont effectués.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les sauvegardes sont stockées en toute sécurité pour éviter que les données ne soient volées ou corrompues.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application définit suffisamment d'en-têtes anticaching pour que les données sensibles ne soient pas mises en cache dans les navigateurs modernes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les données stockées dans le stockage du navigateur (telles que localStorage, sessionStorage, IndexedDB ou cookies) ne contiennent pas de données sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les données authentifiées sont effacées du stockage du client, tel que le DOM du navigateur, après la fin du client ou de la session.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les données sensibles sont envoyées au serveur dans le corps ou les en-têtes du message HTTP, et que les paramètres de la chaîne de requête de tout verbe HTTP ne contiennent pas de données sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs disposent d'une méthode pour supprimer ou exporter leurs données sur demande.</t>
+  </si>
+  <si>
+    <t>Vérifier que les utilisateurs disposent d'un langage clair concernant la collecte et l'utilisation des informations personnelles fournies et que les utilisateurs ont donné leur consentement pour l'utilisation de ces données avant qu'elles ne soient utilisées de quelque manière que ce soit.</t>
+  </si>
+  <si>
+    <t>Vérifier que toutes les données sensibles créées et traitées par l'application ont été identifiées, et s'assurer qu'une politique est en place sur la manière de traiter les données sensibles. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que l'accès aux données sensibles est contrôlé (sans enregistrer les données sensibles elles-mêmes), si les données sont collectées en vertu des directives pertinentes sur la protection des données ou si l'enregistrement de l'accès est nécessaire.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les informations sensibles contenues dans la mémoire sont écrasées dès qu'elles ne sont plus nécessaires pour atténuer les attaques de vidage de la mémoire, en utilisant des zéros ou des données aléatoires.</t>
+  </si>
+  <si>
+    <t>Vérifier que les informations sensibles ou privées qui doivent être chiffrées, le sont à l'aide d'algorithmes approuvés qui assurent à la fois la confidentialité et l'intégrité. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les informations personnelles sensibles font l'objet d'une classification de conservation des données, de sorte que les données anciennes ou périmées soient supprimées automatiquement, selon un calendrier ou selon la situation.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le TLS sécurisé est utilisé pour toutes les connexions des clients et ne revient pas à des protocoles non sécurisés ou non chiffrés. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez à l'aide d'outils de test TLS en ligne ou actualisés que seuls les algorithmes, les chiffrages et les protocoles puissants sont activés, les algorithmes et les chiffrages les plus puissants étant définis de préférence.</t>
+  </si>
+  <si>
+    <t>Vérifiez que seules les dernières versions recommandées du protocole TLS sont activées, telles que TLS 1.2 et TLS 1.3. La dernière version du protocole TLS doit être l'option préférée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les connexions vers et depuis le serveur utilisent des certificats TLS de confiance. Lorsque des certificats générés en interne ou auto-signés sont utilisés, le serveur doit être configuré pour ne faire confiance qu'à des AC internes spécifiques et à des certificats auto-signés spécifiques. Tous les autres doivent être rejetés.</t>
+  </si>
+  <si>
+    <t>Vérifier que les communications chiffrées telles que TLS sont utilisées pour toutes les connexions entrantes et sortantes, y compris pour les ports de gestion, la surveillance, l'authentification, les appels d'API ou de service web, les connexions de base de données, de nuage, sans serveur, d'ordinateur central, externes et de partenaires. Le serveur ne doit pas se rabattre sur des protocoles non sécurisés ou non chiffrés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les connexions chiffrées à des systèmes externes qui impliquent des informations ou des fonctions sensibles sont authentifiées.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la révocation de certification appropriée, telle que le protocol OCSP (Online Certificate Status Protocol), est activée et configurée.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les échecs de connexion TLS en arrière-plan sont enregistrés.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un outil d'analyse de code est utilisé pour détecter les codes potentiellement malveillants, tels que les fonctions temporelles, les opérations de fichiers et les connexions réseau non sécurisées.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code source de l'application et les bibliothèques tierces ne contiennent pas de "téléphone à la maison" ou de capacités de collecte de données non autorisées. Lorsque de telles fonctionnalités existent, obtenez l'autorisation de l'utilisateur pour leur fonctionnement avant de collecter des données.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application ne demande pas d'autorisations inutiles ou excessives pour les caractéristiques ou capteurs liés à la vie privée, tels que les contacts, les caméras, les microphones ou l'emplacement.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code source de l'application et les bibliothèques tierces ne contiennent pas de portes dérobées, telles que des comptes ou des clés codées en dur ou supplémentaires non documentées, des obscurcissements de code, des blobs binaires non documentés, des rootkits, ou des fonctions de débogage anti-débogage, non sécurisées, ou encore des fonctionnalités obsolètes, non sécurisées ou cachées qui pourraient être utilisées de manière malveillante si elles étaient découvertes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code source de l'application et les bibliothèques tierces ne contiennent pas de bombes à retardement en recherchant les fonctions liées à la date et à l'heure.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code source de l'application et les bibliothèques tierces ne contiennent pas de code malveillant, tel que des attaques de type salami, des contournements logiques ou des bombes logiques.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le code source de l'application et les bibliothèques tierces ne contiennent pas d'œufs de Pâques ou toute autre fonctionnalité potentiellement indésirable.</t>
+  </si>
+  <si>
+    <t>Vérifiez que si l'application dispose d'une fonction de mise à jour automatique du client ou du serveur, les mises à jour doivent être obtenues par des canaux sécurisés et signées numériquement. Le code de mise à jour doit valider la signature numérique de la mise à jour avant l'installation ou l'exécution de la mise à jour.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application utilise des protections d'intégrité, telles que la signature de code ou l'intégrité des sous-ressources. L'application ne doit pas charger ou exécuter du code provenant de sources non fiables, comme des includes de chargement, des modules, des plugins, du code ou des bibliothèques provenant de sources non fiables ou de l'Internet.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application est protégée contre les reprises de sous-domaines si elle repose sur des entrées DNS ou des sous-domaines DNS, tels que des noms de domaine expirés, des pointeurs DNS ou CNAME obsolètes, des projets expirés dans des dépôts de code source publics, ou des API de nuages transitoires, des fonctions sans serveur, ou des espaces de stockage (*autogen-bucket-id*.cloud.example.com) ou similaires. Les protections peuvent consister à s'assurer que les noms DNS utilisés par les applications sont régulièrement vérifiés pour détecter toute expiration ou modification.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application traitera seulement les flux de logique métier pour un utilisateur dans l'ordre séquentiel des étapes et sans sauter d'étapes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application ne traitera que des flux de logique métier dont toutes les étapes sont traitées dans un temps humain réaliste, c'est-à-dire que les transactions ne sont pas soumises trop rapidement.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application comporte des limites appropriées pour des actions ou des transactions commerciales spécifiques qui sont correctement exécutées par utilisateur.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application dispose de contrôles anti-automatisation suffisants pour détecter et protéger contre l'exfiltration de données, les demandes excessives de logique métiers, les téléchargements excessifs de fichiers ou les attaques par déni de service.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application a des limites ou une validation de la logique métier pour se protéger contre les risques ou les menaces commerciales probables, identifiés à l'aide de la modélisation des menaces ou de méthodologies similaires.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la demande ne souffre pas de problèmes de "temps de contrôle au moment de l'utilisation" (TOCTOU) ou d'autres situation de compétition (race condition) pour les opérations sensibles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les moniteurs de demande ne présentent pas d'événements ou d'activités inhabituels du point de vue de la logique métier. Par exemple, des tentatives d'effectuer des actions hors service ou des actions qu'un utilisateur normal ne tenterait jamais. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application dispose d'alertes configurables lorsque des attaques automatisées ou une activité inhabituelle sont détectées.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application n'accepte pas de fichiers volumineux qui pourraient remplir l'espace de stockage ou provoquer un déni de service.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application contrôle les fichiers compressés (par exemple, zip, gz, docx, odt) par rapport à la taille maximale autorisée non compressée et au nombre maximal de fichiers avant de décompresser le fichier.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un quota de taille de fichier et un nombre maximum de fichiers par utilisateur sont appliqués pour s'assurer qu'un seul utilisateur ne peut pas remplir le stockage avec trop de fichiers, ou des fichiers excessivement gros.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les fichiers obtenus de sources non fiables sont validés comme étant du type attendu en fonction du contenu du fichier.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les métadonnées de nom de fichier soumises par l'utilisateur ne sont pas utilisées directement par les systèmes de fichiers du système ou du cadre et qu'une API URL est utilisée pour protéger contre la traversée du chemin (path traversal).</t>
+  </si>
+  <si>
+    <t>Vérifier que les métadonnées de nom de fichier soumises par l'utilisateur sont validées ou ignorées pour empêcher la divulgation, la création, la mise à jour ou la suppression de fichiers locaux (LFI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier que les métadonnées de nom de fichier soumises par l'utilisateur sont validées ou ignorées pour empêcher la divulgation ou l'exécution de fichiers distants (RFI), qui peuvent également conduire à des SSRF. </t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application protège contre le téléchargement de fichiers réfléchis (RFD) en validant ou en ignorant les noms de fichiers soumis par les utilisateurs dans un paramètre JSON, JSONP ou URL, l'en-tête Content-Type de la réponse doit être défini sur text/plain, et l'en-tête Content-Disposition doit avoir un nom de fichier fixe.</t>
+  </si>
+  <si>
+    <t>Vérifier que les métadonnées de fichiers non fiables ne sont pas utilisées directement avec l'API système ou les bibliothèques, pour se protéger contre l'injection de commandes du système d'exploitation.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application n'inclut pas et n'exécute pas de fonctionnalités provenant de sources non fiables, telles que des réseaux de distribution de contenu non vérifiés, des bibliothèques JavaScript, des bibliothèques node npm ou des DLL côté serveur.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les fichiers obtenus à partir de sources non fiables sont stockés en dehors de la racine Web, avec des autorisations limitées.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les fichiers obtenus de sources non fiables sont analysés par des scanners antivirus pour empêcher le téléchargement de contenus malveillants connus.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'application web est configuré pour ne servir que les fichiers ayant des extensions de fichier spécifiques afin d'éviter les informations involontaires et les fuites de code source. Par exemple, les fichiers de sauvegarde (par exemple .bak), les fichiers de travail temporaires (par exemple .swp), les fichiers compressés (.zip, .tar.gz, etc) et les autres extensions couramment utilisées par les éditeurs doivent être bloqués, sauf si cela est nécessaire.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les demandes directes aux fichiers téléchargés ne seront jamais exécutées en tant que contenu HTML/JavaScript.</t>
+  </si>
+  <si>
+    <t>Vérifiez que le serveur web ou d'application est configuré avec une liste d'autorisation de ressources ou de systèmes à partir desquels le serveur peut envoyer des requêtes ou charger des données/fichiers.</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les composants de l'application utilisent les mêmes encodages et analyseurs pour éviter les attaques par analyse qui exploitent des comportements différents d'URI ou d'analyse de fichiers qui pourraient être utilisés dans les attaques SSRF et RFI.</t>
+  </si>
+  <si>
+    <t>Vérifier que les URL des API n'exposent pas d'informations sensibles, telles que la clé API, les jetons de session, etc.</t>
+  </si>
+  <si>
+    <t>Vérifier que les décisions d'autorisation sont prises à la fois à l'URI, appliquées par la sécurité programmatique ou déclarative au niveau du contrôleur ou du routeur, et au niveau des ressources, appliquées par des autorisations basées sur des modèles de permission.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les demandes contenant des types de contenu inattendus ou manquants sont rejetées avec les en-têtes appropriés (statut de réponse HTTP 406 Inacceptable ou 415 Type de support non pris en charge).</t>
+  </si>
+  <si>
+    <t>Vérifiez que les méthodes HTTP RESTful activées sont un choix valable pour l'utilisateur ou une action, comme par exemple empêcher les utilisateurs normaux d'utiliser le verbe DELETE ou PUT sur des API ou des ressources protégées.</t>
+  </si>
+  <si>
+    <t>Vérifier que la validation du schéma JSON est en place et vérifiée avant d'accepter la saisie.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les services Web RESTful qui utilisent des cookies sont protégés contre la falsification de requête intersite via l'utilisation d'au moins un ou plusieurs des éléments suivants : modèle de cookie de double soumission, nonces CSRF ou vérifications d'en-tête de requête d'origine.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les services REST vérifient explicitement que le type de contenu entrant est bien celui attendu, par exemple application/xml ou application/json.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les en-têtes de message et la charge utile sont dignes de confiance et non modifiés en transit. Exiger un chiffrement fort pour le transport (TLS uniquement) peut être suffisant dans de nombreux cas, car il assure à la fois la confidentialité et la protection de l'intégrité. Les signatures numériques par message peuvent fournir une assurance supplémentaire en plus des protections de transport pour les applications de haute sécurité, mais apportent avec elles une complexité et des risques supplémentaires à peser par rapport aux avantages.</t>
+  </si>
+  <si>
+    <t>Vérifier que la validation du schéma XSD a lieu pour garantir un document XML correctement formé, suivie de la validation de chaque champ de saisie avant tout traitement de ces données.</t>
+  </si>
+  <si>
+    <t>Vérifier que la charge utile du message est signée en utilisant WS-Security pour assurer un transport fiable entre le client et le service.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'une liste de requêtes autorisées ou une combinaison de limitation de la profondeur et de la quantité est utilisée pour empêcher les dénis de service (DoS) de GraphQL ou de l'expression de la couche de données résultant de requêtes imbriquées et coûteuses. Pour les scénarios plus avancés, il convient d'utiliser l'analyse du coût des requêtes.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la logique d'autorisation de GraphQL ou d'une autre couche de données doit être mise en œuvre au niveau de la couche de logique d'entreprise au lieu de la couche GraphQL.</t>
+  </si>
+  <si>
+    <t>Vérifier que les processus de construction et de déploiement des applications sont effectués de manière sûre et répétable, comme l'automatisation des CI / CD, la gestion automatisée de la configuration et les scripts de déploiement automatisés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les drapeaux du compilateur sont configurés pour activer toutes les protections et les avertissements disponibles contre les débordements de mémoire tampon, y compris la randomisation de la pile, la prévention de l'exécution des données, et pour casser la compilation si un pointeur, une mémoire, une chaîne de format, un entier ou une chaîne de caractères dangereux sont trouvés.</t>
+  </si>
+  <si>
+    <t>Vérifiez que la configuration du serveur est durcie conformément aux recommandations du serveur d'application et des frameworks utilisés.</t>
+  </si>
+  <si>
+    <t>Vérifier que l'application, la configuration et toutes les dépendances peuvent être redéployées à l'aide de scripts de déploiement automatisés, construites à partir d'un runbook documenté et testé dans un délai raisonnable, ou restaurées à partir de sauvegardes en temps utile.</t>
+  </si>
+  <si>
+    <t>Vérifier que les administrateurs autorisés peuvent vérifier l'intégrité de toutes les configurations pertinentes pour la sécurité afin de détecter les altérations.</t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les composants sont à jour, de préférence en utilisant un vérificateur de dépendances pendant le temps de construction ou de compilation. ([C2](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les fonctionnalités, la documentation, les applications d'exemple et les configurations inutiles sont supprimées.</t>
+  </si>
+  <si>
+    <t>Vérifier que si les actifs d'application, tels que les bibliothèques JavaScript, les feuilles de style CSS ou les polices web, sont hébergés en externe sur un réseau de diffusion de contenu (CDN) ou un fournisseur externe, l'intégrité des sous-ressources (SRI) est utilisée pour valider l'intégrité de l'actif.</t>
+  </si>
+  <si>
+    <t>Vérifier que les composants tiers proviennent de dépôts prédéfinis, fiables et continuellement entretenus. ([C2](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier qu'un catalogue d'inventaire de toutes les bibliothèques tierces en service est tenu à jour. ([C2](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifiez que la surface d'attaque est réduite en mettant en bac à sable ou en encapsulant des bibliothèques tierces pour n'exposer que le comportement requis dans l'application. ([C2](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Vérifier que les modes de débogage du serveur web ou d'application et du cadre d'application sont désactivés en production afin d'éliminer les fonctionnalités de débogage, les consoles de développement et les divulgations de sécurité non intentionnelles.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les en-têtes HTTP ou toute partie de la réponse HTTP n'exposent pas d'informations détaillées sur la version des composants du système.</t>
+  </si>
+  <si>
+    <t>Vérifiez que chaque réponse HTTP contient un en-tête Content-Type. Les types de contenu text/*, */*+xml et application/xml doivent également spécifier un jeu de caractères sûr (par exemple, UTF-8, ISO-8859-1).</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les réponses de l'API contiennent Content-Disposition : attachment ; filename="api.json" (ou tout autre nom de fichier approprié pour le type de contenu).</t>
+  </si>
+  <si>
+    <t>Vérifier qu'une politique de sécurité du contenu (CSP) est en place pour aider à atténuer l'impact des attaques XSS comme les vulnérabilités d'injection HTML, DOM, JSON et JavaScript.</t>
+  </si>
+  <si>
+    <t>Vérifiez que toutes les réponses contiennent X-Content-Type-Options: nosniff.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'en-tête Strict-Transport-Security est inclus dans toutes les réponses et pour tous les sous-domaines, comme Strict-Transport-Security : max-age=15724800 ; includeSubdomains.</t>
+  </si>
+  <si>
+    <t>Vérifiez qu'un en-tête "Referrer-Policy" approprié est inclus, tel que "no-referrer" ou "same-origin".</t>
+  </si>
+  <si>
+    <t>Vérifier que le contenu d'une application web ne peut pas être intégré par défaut dans un site tiers et que l'intégration des ressources exactes n'est autorisée que si nécessaire en utilisant un en-tête approprié tel "Content-Security-Policy: frame-ancestors" ou "X-Frame-Options".</t>
+  </si>
+  <si>
+    <t>Vérifiez que le serveur d'application accepte seulement les méthodes HTTP utilisées par l'application/API (incluant les requetes de type OPTIONS), et les journalise/alertes sur toutes les demandes qui sont invalades pour le contexte de l'application.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'en-tête Origin fourni n'est pas utilisé pour les décisions d'authentification ou de contrôle d'accès, car l'en-tête Origin peut facilement être modifié par un attaquant.</t>
+  </si>
+  <si>
+    <t>Vérifiez que l'en-tête "Cross-Origin Resource Sharing" (CORS) Access-Control-Allow-Origin utilise une liste d'autorisation stricte de domaines et sous-domaines de confiance pour la comparaison avec l'origine "null" et ne la prend pas en charge.</t>
+  </si>
+  <si>
+    <t>Vérifiez que les en-têtes HTTP ajoutés par un proxy de confiance ou des dispositifs SSO, tels qu'un jeton au porteur, sont authentifiés par l'application.</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +3462,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2378,11 +3485,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2391,6 +3509,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2693,20 +3812,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51175FF8-6717-FB40-9E4C-E6F4E9CBE986}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>724</v>
       </c>
@@ -2714,15 +3833,15 @@
         <v>741</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>725</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>726</v>
       </c>
@@ -2730,7 +3849,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>728</v>
       </c>
@@ -2738,7 +3857,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>729</v>
       </c>
@@ -2746,7 +3865,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>730</v>
       </c>
@@ -2754,7 +3873,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>731</v>
       </c>
@@ -2762,7 +3881,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>732</v>
       </c>
@@ -2770,7 +3889,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>733</v>
       </c>
@@ -2778,7 +3897,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>735</v>
       </c>
@@ -2786,7 +3905,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>736</v>
       </c>
@@ -2794,7 +3913,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>737</v>
       </c>
@@ -2802,7 +3921,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>738</v>
       </c>
@@ -2810,7 +3929,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>739</v>
       </c>
@@ -2821,7 +3940,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>739</v>
       </c>
@@ -2830,6 +3949,54 @@
       </c>
       <c r="C15" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>767</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>768</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>769</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>770</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>771</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -2840,20 +4007,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7B828B-CF6B-1A40-8534-5DC42C4D8E48}">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" zoomScale="250" workbookViewId="0">
-      <selection activeCell="C263" sqref="C263"/>
+    <sheetView topLeftCell="F331" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H359" sqref="H359:H362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,8 +4041,14 @@
       <c r="F1" s="1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2883,8 +4058,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2894,8 +4072,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2911,8 +4092,11 @@
       <c r="F4" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2928,8 +4112,11 @@
       <c r="F5" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2945,8 +4132,11 @@
       <c r="F6" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2962,8 +4152,11 @@
       <c r="F7" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2979,8 +4172,11 @@
       <c r="F8" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2996,8 +4192,11 @@
       <c r="F9" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3013,8 +4212,11 @@
       <c r="F10" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -3024,8 +4226,11 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3041,8 +4246,11 @@
       <c r="F12" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3058,8 +4266,11 @@
       <c r="F13" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3075,8 +4286,11 @@
       <c r="F14" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -3092,8 +4306,11 @@
       <c r="F15" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
@@ -3103,8 +4320,11 @@
       <c r="D16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -3120,8 +4340,11 @@
       <c r="F17" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3137,8 +4360,11 @@
       <c r="F18" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -3154,8 +4380,11 @@
       <c r="F19" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3165,8 +4394,11 @@
       <c r="D20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3182,8 +4414,11 @@
       <c r="F21" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -3199,8 +4434,11 @@
       <c r="F22" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -3216,8 +4454,11 @@
       <c r="F23" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3233,8 +4474,11 @@
       <c r="F24" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -3244,8 +4488,11 @@
       <c r="D25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3261,8 +4508,11 @@
       <c r="F26" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -3278,8 +4528,11 @@
       <c r="F27" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -3295,8 +4548,11 @@
       <c r="F28" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3312,8 +4568,11 @@
       <c r="F29" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -3323,8 +4582,11 @@
       <c r="D30" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -3340,8 +4602,11 @@
       <c r="F31" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -3357,8 +4622,11 @@
       <c r="F32" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2</v>
       </c>
@@ -3368,8 +4636,11 @@
       <c r="D33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -3385,8 +4656,11 @@
       <c r="F34" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -3402,8 +4676,11 @@
       <c r="F35" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2</v>
       </c>
@@ -3413,8 +4690,11 @@
       <c r="D36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3430,8 +4710,11 @@
       <c r="F37" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3447,8 +4730,11 @@
       <c r="F38" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2</v>
       </c>
@@ -3458,8 +4744,11 @@
       <c r="D39" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3475,8 +4764,11 @@
       <c r="F40" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2</v>
       </c>
@@ -3486,8 +4778,11 @@
       <c r="D41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -3503,8 +4798,11 @@
       <c r="F42" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -3520,8 +4818,11 @@
       <c r="F43" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3537,8 +4838,11 @@
       <c r="F44" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2</v>
       </c>
@@ -3548,8 +4852,11 @@
       <c r="D45" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -3565,8 +4872,11 @@
       <c r="F46" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2</v>
       </c>
@@ -3576,8 +4886,11 @@
       <c r="D47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3593,8 +4906,11 @@
       <c r="F48" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3610,8 +4926,11 @@
       <c r="F49" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3627,8 +4946,11 @@
       <c r="F50" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3644,8 +4966,11 @@
       <c r="F51" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -3661,8 +4986,11 @@
       <c r="F52" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3678,8 +5006,11 @@
       <c r="F53" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1</v>
       </c>
@@ -3689,8 +5020,11 @@
       <c r="D54" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2</v>
       </c>
@@ -3700,8 +5034,11 @@
       <c r="D55" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -3717,8 +5054,11 @@
       <c r="F56" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -3734,8 +5074,11 @@
       <c r="F57" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -3751,8 +5094,11 @@
       <c r="F58" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -3768,8 +5114,11 @@
       <c r="F59" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -3785,8 +5134,11 @@
       <c r="F60" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -3802,8 +5154,11 @@
       <c r="F61" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3819,8 +5174,11 @@
       <c r="F62" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -3836,8 +5194,11 @@
       <c r="F63" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -3853,8 +5214,11 @@
       <c r="F64" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3870,8 +5234,11 @@
       <c r="F65" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3887,8 +5254,11 @@
       <c r="F66" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3904,8 +5274,11 @@
       <c r="F67" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
@@ -3915,8 +5288,11 @@
       <c r="D68" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3932,8 +5308,11 @@
       <c r="F69" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3949,8 +5328,11 @@
       <c r="F70" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3966,8 +5348,11 @@
       <c r="F71" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3983,8 +5368,11 @@
       <c r="F72" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -4000,8 +5388,11 @@
       <c r="F73" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -4017,8 +5408,11 @@
       <c r="F74" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -4034,8 +5428,11 @@
       <c r="F75" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>2</v>
       </c>
@@ -4045,8 +5442,11 @@
       <c r="D76" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -4062,8 +5462,11 @@
       <c r="F77" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -4079,8 +5482,11 @@
       <c r="F78" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4096,8 +5502,11 @@
       <c r="F79" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>2</v>
       </c>
@@ -4107,8 +5516,11 @@
       <c r="D80" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -4124,8 +5536,11 @@
       <c r="F81" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -4141,8 +5556,11 @@
       <c r="F82" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -4158,8 +5576,11 @@
       <c r="F83" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -4175,8 +5596,11 @@
       <c r="F84" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -4192,8 +5616,11 @@
       <c r="F85" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>2</v>
       </c>
@@ -4203,8 +5630,11 @@
       <c r="D86" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -4220,8 +5650,11 @@
       <c r="F87" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -4237,8 +5670,11 @@
       <c r="F88" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -4254,8 +5690,11 @@
       <c r="F89" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -4271,8 +5710,11 @@
       <c r="F90" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -4288,8 +5730,11 @@
       <c r="F91" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -4305,8 +5750,11 @@
       <c r="F92" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -4322,8 +5770,11 @@
       <c r="F93" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>2</v>
       </c>
@@ -4333,8 +5784,11 @@
       <c r="D94" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -4350,8 +5804,11 @@
       <c r="F95" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -4367,8 +5824,11 @@
       <c r="F96" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -4384,8 +5844,11 @@
       <c r="F97" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>2</v>
       </c>
@@ -4395,8 +5858,11 @@
       <c r="D98" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -4412,8 +5878,11 @@
       <c r="F99" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -4429,8 +5898,11 @@
       <c r="F100" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -4446,8 +5918,11 @@
       <c r="F101" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -4463,8 +5938,11 @@
       <c r="F102" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -4480,8 +5958,11 @@
       <c r="F103" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -4497,8 +5978,11 @@
       <c r="F104" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>2</v>
       </c>
@@ -4508,8 +5992,11 @@
       <c r="D105" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -4525,8 +6012,11 @@
       <c r="F106" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -4542,8 +6032,11 @@
       <c r="F107" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -4559,8 +6052,11 @@
       <c r="F108" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4576,8 +6072,11 @@
       <c r="F109" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4593,8 +6092,11 @@
       <c r="F110" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4610,8 +6112,11 @@
       <c r="F111" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4627,8 +6132,11 @@
       <c r="F112" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>2</v>
       </c>
@@ -4638,8 +6146,11 @@
       <c r="D113" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4655,8 +6166,11 @@
       <c r="F114" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4672,8 +6186,11 @@
       <c r="F115" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4689,8 +6206,11 @@
       <c r="F116" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>2</v>
       </c>
@@ -4700,8 +6220,11 @@
       <c r="D117" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4717,8 +6240,11 @@
       <c r="F118" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4734,8 +6260,11 @@
       <c r="F119" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4751,8 +6280,11 @@
       <c r="F120" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4768,8 +6300,11 @@
       <c r="F121" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>1</v>
       </c>
@@ -4779,8 +6314,11 @@
       <c r="D122" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>2</v>
       </c>
@@ -4790,8 +6328,11 @@
       <c r="D123" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4807,8 +6348,11 @@
       <c r="F124" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>2</v>
       </c>
@@ -4818,8 +6362,11 @@
       <c r="D125" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4835,8 +6382,11 @@
       <c r="F126" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4852,8 +6402,11 @@
       <c r="F127" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4869,8 +6422,11 @@
       <c r="F128" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4886,8 +6442,11 @@
       <c r="F129" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>2</v>
       </c>
@@ -4897,8 +6456,11 @@
       <c r="D130" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4914,8 +6476,11 @@
       <c r="F131" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4931,8 +6496,11 @@
       <c r="F132" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4948,8 +6516,11 @@
       <c r="F133" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4965,8 +6536,11 @@
       <c r="F134" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>2</v>
       </c>
@@ -4976,8 +6550,11 @@
       <c r="D135" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4993,8 +6570,11 @@
       <c r="F136" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -5010,8 +6590,11 @@
       <c r="F137" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -5027,8 +6610,11 @@
       <c r="F138" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -5044,8 +6630,11 @@
       <c r="F139" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -5061,8 +6650,11 @@
       <c r="F140" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>2</v>
       </c>
@@ -5072,8 +6664,11 @@
       <c r="D141" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -5089,8 +6684,11 @@
       <c r="F142" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -5106,8 +6704,11 @@
       <c r="F143" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -5123,8 +6724,11 @@
       <c r="F144" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>2</v>
       </c>
@@ -5134,8 +6738,11 @@
       <c r="D145" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -5151,8 +6758,11 @@
       <c r="F146" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -5168,8 +6778,11 @@
       <c r="F147" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>2</v>
       </c>
@@ -5179,8 +6792,11 @@
       <c r="D148" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -5196,8 +6812,11 @@
       <c r="F149" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>1</v>
       </c>
@@ -5207,8 +6826,11 @@
       <c r="D150" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>2</v>
       </c>
@@ -5218,8 +6840,11 @@
       <c r="D151" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -5235,8 +6860,11 @@
       <c r="F152" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -5252,8 +6880,11 @@
       <c r="F153" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -5269,8 +6900,11 @@
       <c r="F154" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -5286,8 +6920,11 @@
       <c r="F155" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>2</v>
       </c>
@@ -5297,8 +6934,11 @@
       <c r="D156" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -5314,8 +6954,11 @@
       <c r="F157" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -5331,8 +6974,11 @@
       <c r="F158" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>2</v>
       </c>
@@ -5342,8 +6988,11 @@
       <c r="D159" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -5359,8 +7008,11 @@
       <c r="F160" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -5376,8 +7028,11 @@
       <c r="F161" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -5393,8 +7048,11 @@
       <c r="F162" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>1</v>
       </c>
@@ -5404,8 +7062,11 @@
       <c r="D163" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>2</v>
       </c>
@@ -5415,8 +7076,11 @@
       <c r="D164" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -5432,8 +7096,11 @@
       <c r="F165" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5449,8 +7116,11 @@
       <c r="F166" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -5466,8 +7136,11 @@
       <c r="F167" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -5483,8 +7156,11 @@
       <c r="F168" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5500,8 +7176,11 @@
       <c r="F169" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H169" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>2</v>
       </c>
@@ -5511,8 +7190,11 @@
       <c r="D170" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -5528,8 +7210,11 @@
       <c r="F171" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5545,8 +7230,11 @@
       <c r="F172" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -5562,8 +7250,11 @@
       <c r="F173" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H173" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -5579,8 +7270,11 @@
       <c r="F174" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -5596,8 +7290,11 @@
       <c r="F175" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -5613,8 +7310,11 @@
       <c r="F176" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H176" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5630,8 +7330,11 @@
       <c r="F177" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H177" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -5647,8 +7350,11 @@
       <c r="F178" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>2</v>
       </c>
@@ -5658,8 +7364,11 @@
       <c r="D179" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -5675,8 +7384,11 @@
       <c r="F180" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -5692,8 +7404,11 @@
       <c r="F181" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -5709,8 +7424,11 @@
       <c r="F182" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -5726,8 +7444,11 @@
       <c r="F183" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5743,8 +7464,11 @@
       <c r="F184" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -5760,8 +7484,11 @@
       <c r="F185" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -5777,8 +7504,11 @@
       <c r="F186" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -5794,8 +7524,11 @@
       <c r="F187" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -5811,8 +7544,11 @@
       <c r="F188" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -5828,8 +7564,11 @@
       <c r="F189" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H189" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>2</v>
       </c>
@@ -5839,8 +7578,11 @@
       <c r="D190" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5856,8 +7598,11 @@
       <c r="F191" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H191" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -5873,8 +7618,11 @@
       <c r="F192" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H192" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -5890,8 +7638,11 @@
       <c r="F193" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>2</v>
       </c>
@@ -5901,8 +7652,11 @@
       <c r="D194" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -5918,8 +7672,11 @@
       <c r="F195" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -5935,8 +7692,11 @@
       <c r="F196" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H196" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5952,8 +7712,11 @@
       <c r="F197" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H197" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -5969,8 +7732,11 @@
       <c r="F198" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H198" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>1</v>
       </c>
@@ -5980,8 +7746,11 @@
       <c r="D199" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>2</v>
       </c>
@@ -5991,8 +7760,11 @@
       <c r="D200" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -6008,8 +7780,11 @@
       <c r="F201" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H201" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -6025,8 +7800,11 @@
       <c r="F202" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H202" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -6042,8 +7820,11 @@
       <c r="F203" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H203" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>2</v>
       </c>
@@ -6053,8 +7834,11 @@
       <c r="D204" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -6070,8 +7854,11 @@
       <c r="F205" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H205" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -6087,8 +7874,11 @@
       <c r="F206" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H206" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -6104,8 +7894,11 @@
       <c r="F207" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H207" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -6121,8 +7914,11 @@
       <c r="F208" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H208" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -6138,8 +7934,11 @@
       <c r="F209" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H209" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -6155,8 +7954,11 @@
       <c r="F210" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H210" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -6172,8 +7974,11 @@
       <c r="F211" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H211" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -6189,8 +7994,11 @@
       <c r="F212" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H212" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>2</v>
       </c>
@@ -6200,8 +8008,11 @@
       <c r="D213" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -6217,8 +8028,11 @@
       <c r="F214" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H214" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -6234,8 +8048,11 @@
       <c r="F215" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H215" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -6251,8 +8068,11 @@
       <c r="F216" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H216" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>2</v>
       </c>
@@ -6262,8 +8082,11 @@
       <c r="D217" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -6279,8 +8102,11 @@
       <c r="F218" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H218" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -6296,8 +8122,11 @@
       <c r="F219" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H219" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>1</v>
       </c>
@@ -6307,8 +8136,11 @@
       <c r="D220" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>2</v>
       </c>
@@ -6318,8 +8150,11 @@
       <c r="D221" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -6335,8 +8170,11 @@
       <c r="F222" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H222" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -6352,8 +8190,11 @@
       <c r="F223" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H223" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -6369,8 +8210,11 @@
       <c r="F224" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H224" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6386,8 +8230,11 @@
       <c r="F225" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H225" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>2</v>
       </c>
@@ -6397,8 +8244,11 @@
       <c r="D226" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -6414,8 +8264,11 @@
       <c r="F227" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H227" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -6431,8 +8284,11 @@
       <c r="F228" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H228" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>2</v>
       </c>
@@ -6442,8 +8298,11 @@
       <c r="D229" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -6459,8 +8318,11 @@
       <c r="F230" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H230" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -6476,8 +8338,11 @@
       <c r="F231" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H231" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -6493,8 +8358,11 @@
       <c r="F232" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H232" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>2</v>
       </c>
@@ -6504,8 +8372,11 @@
       <c r="D233" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -6521,8 +8392,11 @@
       <c r="F234" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H234" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -6538,8 +8412,11 @@
       <c r="F235" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H235" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -6555,8 +8432,11 @@
       <c r="F236" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H236" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>1</v>
       </c>
@@ -6566,8 +8446,11 @@
       <c r="D237" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>2</v>
       </c>
@@ -6577,8 +8460,11 @@
       <c r="D238" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -6594,8 +8480,11 @@
       <c r="F239" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H239" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -6611,8 +8500,11 @@
       <c r="F240" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H240" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -6628,8 +8520,11 @@
       <c r="F241" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H241" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -6645,8 +8540,11 @@
       <c r="F242" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -6662,8 +8560,11 @@
       <c r="F243" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -6679,8 +8580,11 @@
       <c r="F244" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>2</v>
       </c>
@@ -6690,8 +8594,11 @@
       <c r="D245" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -6707,8 +8614,11 @@
       <c r="F246" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -6724,8 +8634,11 @@
       <c r="F247" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H247" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -6741,8 +8654,11 @@
       <c r="F248" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H248" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>2</v>
       </c>
@@ -6752,8 +8668,11 @@
       <c r="D249" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -6769,8 +8688,11 @@
       <c r="F250" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H250" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -6786,8 +8708,11 @@
       <c r="F251" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H251" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -6803,8 +8728,11 @@
       <c r="F252" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H252" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -6820,8 +8748,11 @@
       <c r="F253" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H253" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -6837,8 +8768,11 @@
       <c r="F254" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H254" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -6854,8 +8788,11 @@
       <c r="F255" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H255" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -6871,8 +8808,11 @@
       <c r="F256" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H256" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -6888,8 +8828,11 @@
       <c r="F257" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H257" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>1</v>
       </c>
@@ -6899,8 +8842,11 @@
       <c r="D258" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>2</v>
       </c>
@@ -6910,8 +8856,11 @@
       <c r="D259" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -6927,8 +8876,11 @@
       <c r="F260" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H260" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -6944,8 +8896,11 @@
       <c r="F261" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H261" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -6961,8 +8916,11 @@
       <c r="F262" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H262" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>2</v>
       </c>
@@ -6972,8 +8930,11 @@
       <c r="D263" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -6989,8 +8950,11 @@
       <c r="F264" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H264" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -7006,8 +8970,11 @@
       <c r="F265" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H265" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -7023,8 +8990,11 @@
       <c r="F266" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H266" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -7040,8 +9010,11 @@
       <c r="F267" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H267" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -7057,8 +9030,11 @@
       <c r="F268" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H268" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B269">
         <v>1</v>
       </c>
@@ -7068,8 +9044,11 @@
       <c r="D269" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B270">
         <v>2</v>
       </c>
@@ -7079,8 +9058,11 @@
       <c r="D270" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G270" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -7096,8 +9078,11 @@
       <c r="F271" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H271" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B272">
         <v>2</v>
       </c>
@@ -7107,8 +9092,11 @@
       <c r="D272" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G272" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -7124,8 +9112,11 @@
       <c r="F273" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H273" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -7141,8 +9132,11 @@
       <c r="F274" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H274" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -7158,8 +9152,11 @@
       <c r="F275" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H275" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -7175,8 +9172,11 @@
       <c r="F276" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H276" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -7192,8 +9192,11 @@
       <c r="F277" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H277" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -7209,8 +9212,11 @@
       <c r="F278" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H278" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B279">
         <v>2</v>
       </c>
@@ -7220,8 +9226,11 @@
       <c r="D279" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G279" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -7237,8 +9246,11 @@
       <c r="F280" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H280" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -7254,8 +9266,11 @@
       <c r="F281" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H281" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -7271,8 +9286,11 @@
       <c r="F282" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H282" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B283">
         <v>1</v>
       </c>
@@ -7282,8 +9300,11 @@
       <c r="D283" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G283" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B284">
         <v>2</v>
       </c>
@@ -7293,8 +9314,11 @@
       <c r="D284" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -7310,8 +9334,11 @@
       <c r="F285" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H285" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -7327,8 +9354,11 @@
       <c r="F286" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H286" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -7344,8 +9374,11 @@
       <c r="F287" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H287" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -7361,8 +9394,11 @@
       <c r="F288" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H288" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -7378,8 +9414,11 @@
       <c r="F289" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H289" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -7395,8 +9434,11 @@
       <c r="F290" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H290" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -7412,8 +9454,11 @@
       <c r="F291" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H291" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -7429,8 +9474,11 @@
       <c r="F292" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H292" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B293">
         <v>1</v>
       </c>
@@ -7440,8 +9488,11 @@
       <c r="D293" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B294">
         <v>2</v>
       </c>
@@ -7451,8 +9502,11 @@
       <c r="D294" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G294" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -7468,8 +9522,11 @@
       <c r="F295" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -7485,8 +9542,11 @@
       <c r="F296" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H296" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -7502,8 +9562,11 @@
       <c r="F297" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H297" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B298">
         <v>2</v>
       </c>
@@ -7513,8 +9576,11 @@
       <c r="D298" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G298" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -7530,8 +9596,11 @@
       <c r="F299" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H299" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B300">
         <v>2</v>
       </c>
@@ -7541,8 +9610,11 @@
       <c r="D300" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -7558,8 +9630,11 @@
       <c r="F301" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H301" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -7575,8 +9650,11 @@
       <c r="F302" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H302" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -7592,8 +9670,11 @@
       <c r="F303" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H303" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -7609,8 +9690,11 @@
       <c r="F304" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H304" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -7626,8 +9710,11 @@
       <c r="F305" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H305" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -7643,8 +9730,11 @@
       <c r="F306" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H306" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B307">
         <v>2</v>
       </c>
@@ -7654,8 +9744,11 @@
       <c r="D307" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G307" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -7671,8 +9764,11 @@
       <c r="F308" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H308" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -7688,8 +9784,11 @@
       <c r="F309" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H309" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B310">
         <v>2</v>
       </c>
@@ -7699,8 +9798,11 @@
       <c r="D310" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G310" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -7716,8 +9818,11 @@
       <c r="F311" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H311" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -7733,8 +9838,11 @@
       <c r="F312" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H312" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B313">
         <v>2</v>
       </c>
@@ -7744,8 +9852,11 @@
       <c r="D313" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G313" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -7761,8 +9872,11 @@
       <c r="F314" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H314" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B315">
         <v>1</v>
       </c>
@@ -7772,8 +9886,11 @@
       <c r="D315" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G315" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B316">
         <v>2</v>
       </c>
@@ -7783,8 +9900,11 @@
       <c r="D316" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G316" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -7800,8 +9920,11 @@
       <c r="F317" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H317" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -7817,8 +9940,11 @@
       <c r="F318" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H318" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -7834,8 +9960,11 @@
       <c r="F319" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H319" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -7851,8 +9980,11 @@
       <c r="F320" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H320" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B321">
         <v>2</v>
       </c>
@@ -7862,8 +9994,11 @@
       <c r="D321" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G321" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -7879,8 +10014,11 @@
       <c r="F322" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H322" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -7896,8 +10034,11 @@
       <c r="F323" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H323" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -7913,8 +10054,11 @@
       <c r="F324" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H324" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -7930,8 +10074,11 @@
       <c r="F325" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H325" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -7947,8 +10094,11 @@
       <c r="F326" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H326" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B327">
         <v>2</v>
       </c>
@@ -7958,8 +10108,11 @@
       <c r="D327" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G327" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -7975,8 +10128,11 @@
       <c r="F328" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H328" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -7992,8 +10148,11 @@
       <c r="F329" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H329" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B330">
         <v>2</v>
       </c>
@@ -8003,8 +10162,11 @@
       <c r="D330" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G330" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -8020,8 +10182,11 @@
       <c r="F331" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H331" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -8037,8 +10202,11 @@
       <c r="F332" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H332" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B333">
         <v>1</v>
       </c>
@@ -8048,8 +10216,11 @@
       <c r="D333" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G333" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B334">
         <v>2</v>
       </c>
@@ -8059,8 +10230,11 @@
       <c r="D334" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G334" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -8076,8 +10250,11 @@
       <c r="F335" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H335" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -8093,8 +10270,11 @@
       <c r="F336" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H336" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -8110,8 +10290,11 @@
       <c r="F337" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H337" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -8127,8 +10310,11 @@
       <c r="F338" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H338" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -8144,8 +10330,11 @@
       <c r="F339" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H339" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B340">
         <v>2</v>
       </c>
@@ -8155,8 +10344,11 @@
       <c r="D340" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G340" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -8172,8 +10364,11 @@
       <c r="F341" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H341" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -8189,8 +10384,11 @@
       <c r="F342" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H342" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -8206,8 +10404,11 @@
       <c r="F343" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H343" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -8223,8 +10424,11 @@
       <c r="F344" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H344" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -8240,8 +10444,11 @@
       <c r="F345" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H345" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>7</v>
       </c>
@@ -8257,8 +10464,11 @@
       <c r="F346" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H346" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B347">
         <v>2</v>
       </c>
@@ -8268,8 +10478,11 @@
       <c r="D347" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G347" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>7</v>
       </c>
@@ -8285,8 +10498,11 @@
       <c r="F348" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H348" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>7</v>
       </c>
@@ -8302,8 +10518,11 @@
       <c r="F349" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H349" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B350">
         <v>2</v>
       </c>
@@ -8313,8 +10532,11 @@
       <c r="D350" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G350" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>7</v>
       </c>
@@ -8330,8 +10552,11 @@
       <c r="F351" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H351" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -8347,8 +10572,11 @@
       <c r="F352" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H352" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>7</v>
       </c>
@@ -8364,8 +10592,11 @@
       <c r="F353" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H353" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>7</v>
       </c>
@@ -8381,8 +10612,11 @@
       <c r="F354" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H354" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>7</v>
       </c>
@@ -8398,8 +10632,11 @@
       <c r="F355" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H355" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>7</v>
       </c>
@@ -8415,8 +10652,11 @@
       <c r="F356" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H356" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>7</v>
       </c>
@@ -8432,8 +10672,11 @@
       <c r="F357" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H357" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B358">
         <v>2</v>
       </c>
@@ -8443,8 +10686,11 @@
       <c r="D358" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G358" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -8460,8 +10706,11 @@
       <c r="F359" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H359" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -8477,8 +10726,11 @@
       <c r="F360" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H360" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -8494,8 +10746,11 @@
       <c r="F361" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H361" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>7</v>
       </c>
@@ -8511,10 +10766,13 @@
       <c r="F362" t="s">
         <v>753</v>
       </c>
+      <c r="H362" t="s">
+        <v>1134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8526,12 +10784,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>751</v>
       </c>
@@ -8542,7 +10800,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>758</v>
       </c>
@@ -8553,7 +10811,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>759</v>
       </c>
@@ -8564,7 +10822,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>754</v>
       </c>
